--- a/src/main/resources/알고리즘 문제 목록.xlsx
+++ b/src/main/resources/알고리즘 문제 목록.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="901">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="904">
   <si>
     <t>수학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4769,6 +4769,18 @@
   <si>
     <t>HashSet을 이용해서 풀었다.
 시간복잡도 O(n^2) 공간복잡도 O(n) 이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-palindromic-substring/</t>
+  </si>
+  <si>
+    <t>LongestPalindromicSubstring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생각이 안나서 브루트포스하게 풀었더니 성능 실패
+dp로 풀어보려고했는데 실패</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4861,7 +4873,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4877,6 +4889,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4980,7 +4998,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5105,6 +5123,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -11429,8 +11456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11790,9 +11817,9 @@
       <c r="D26" s="4"/>
       <c r="E26" s="10"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D27" s="4"/>
-      <c r="E27" s="10"/>
+    <row r="27" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="43"/>
+      <c r="E27" s="44"/>
     </row>
     <row r="28" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
@@ -11809,8 +11836,19 @@
       </c>
       <c r="E28" s="11"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D29" s="4"/>
+    <row r="29" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>902</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>774</v>
+      </c>
+      <c r="C29" t="s">
+        <v>901</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>903</v>
+      </c>
       <c r="E29" s="10"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">

--- a/src/main/resources/알고리즘 문제 목록.xlsx
+++ b/src/main/resources/알고리즘 문제 목록.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="904">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="905">
   <si>
     <t>수학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4781,6 +4781,10 @@
   <si>
     <t>생각이 안나서 브루트포스하게 풀었더니 성능 실패
 dp로 풀어보려고했는데 실패</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실패 &gt;&gt; 다시풀기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -11456,8 +11460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11849,7 +11853,9 @@
       <c r="D29" s="4" t="s">
         <v>903</v>
       </c>
-      <c r="E29" s="10"/>
+      <c r="E29" s="10" t="s">
+        <v>904</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D30" s="4"/>

--- a/src/main/resources/알고리즘 문제 목록.xlsx
+++ b/src/main/resources/알고리즘 문제 목록.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="9975" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="9975" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="BASIC" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,9 @@
     <sheet name="백준 랜덤" sheetId="6" r:id="rId5"/>
     <sheet name="hackerrank" sheetId="7" r:id="rId6"/>
     <sheet name="leetcode" sheetId="9" r:id="rId7"/>
-    <sheet name="라이브 코딩 기출" sheetId="11" r:id="rId8"/>
-    <sheet name="카카오" sheetId="13" r:id="rId9"/>
+    <sheet name="인프런" sheetId="14" r:id="rId8"/>
+    <sheet name="라이브 코딩 기출" sheetId="11" r:id="rId9"/>
+    <sheet name="카카오" sheetId="13" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="905">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="906">
   <si>
     <t>수학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4786,6 +4787,9 @@
   <si>
     <t>실패 &gt;&gt; 다시풀기</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/restore-ip-addresses/</t>
   </si>
 </sst>
 </file>
@@ -7084,6 +7088,330 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H68"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.875" customWidth="1"/>
+    <col min="2" max="2" width="9.75" customWidth="1"/>
+    <col min="3" max="3" width="82.75" customWidth="1"/>
+    <col min="4" max="4" width="91.375" customWidth="1"/>
+    <col min="5" max="5" width="25.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
+        <v>579</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>577</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>578</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>522</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>523</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>571</v>
+      </c>
+      <c r="H1" s="32"/>
+    </row>
+    <row r="2" spans="1:8" ht="165" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>869</v>
+      </c>
+      <c r="B2" s="26">
+        <v>1</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>867</v>
+      </c>
+      <c r="D2" s="35"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="24"/>
+    </row>
+    <row r="3" spans="1:8" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>868</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:8" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="26"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="10"/>
+    </row>
+    <row r="5" spans="1:8" ht="303.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="10"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="10"/>
+    </row>
+    <row r="6" spans="1:8" ht="378" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>870</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="10"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C7" s="10"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="10"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="10"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C9" s="22"/>
+      <c r="E9" s="10"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E12" s="10"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E13" s="10"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E14" s="10"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D15" s="34"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D16" s="4"/>
+      <c r="E16" s="10"/>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D17" s="4"/>
+      <c r="E17" s="10"/>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E18" s="10"/>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E19" s="10"/>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D20" s="4"/>
+      <c r="E20" s="10"/>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E21" s="10"/>
+    </row>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D22" s="4"/>
+      <c r="E22" s="10"/>
+    </row>
+    <row r="23" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D23" s="4"/>
+      <c r="E23" s="10"/>
+    </row>
+    <row r="24" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D24" s="4"/>
+      <c r="E24" s="11"/>
+    </row>
+    <row r="25" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D25" s="4"/>
+      <c r="E25" s="10"/>
+    </row>
+    <row r="26" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D26" s="4"/>
+      <c r="E26" s="10"/>
+    </row>
+    <row r="27" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D27" s="4"/>
+      <c r="E27" s="11"/>
+    </row>
+    <row r="28" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D28" s="4"/>
+      <c r="E28" s="10"/>
+    </row>
+    <row r="29" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D29" s="4"/>
+      <c r="E29" s="11"/>
+    </row>
+    <row r="30" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D30" s="4"/>
+      <c r="E30" s="10"/>
+    </row>
+    <row r="31" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D31" s="4"/>
+      <c r="E31" s="11"/>
+    </row>
+    <row r="32" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D32" s="4"/>
+      <c r="E32" s="10"/>
+    </row>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D33" s="4"/>
+      <c r="E33" s="11"/>
+    </row>
+    <row r="34" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D34" s="4"/>
+      <c r="E34" s="10"/>
+    </row>
+    <row r="35" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D35" s="4"/>
+      <c r="E35" s="11"/>
+    </row>
+    <row r="36" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D36" s="4"/>
+      <c r="E36" s="10"/>
+    </row>
+    <row r="37" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D37" s="4"/>
+      <c r="E37" s="11"/>
+    </row>
+    <row r="38" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E38" s="10"/>
+    </row>
+    <row r="39" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E39" s="11"/>
+    </row>
+    <row r="40" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D40" s="4"/>
+      <c r="E40" s="10"/>
+    </row>
+    <row r="41" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E41" s="11"/>
+    </row>
+    <row r="42" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D42" s="22"/>
+      <c r="E42" s="10"/>
+    </row>
+    <row r="43" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E43" s="11"/>
+    </row>
+    <row r="44" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E44" s="10"/>
+    </row>
+    <row r="45" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E45" s="11"/>
+    </row>
+    <row r="46" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E46" s="10"/>
+    </row>
+    <row r="47" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E47" s="11"/>
+    </row>
+    <row r="48" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E48" s="10"/>
+    </row>
+    <row r="49" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E49" s="10"/>
+    </row>
+    <row r="50" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E50" s="10"/>
+    </row>
+    <row r="51" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E51" s="10"/>
+    </row>
+    <row r="52" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D52" s="4"/>
+      <c r="E52" s="10"/>
+    </row>
+    <row r="53" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E53" s="10"/>
+    </row>
+    <row r="54" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D54" s="4"/>
+      <c r="E54" s="10"/>
+    </row>
+    <row r="55" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E55" s="10"/>
+    </row>
+    <row r="56" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D56" s="4"/>
+      <c r="E56" s="10"/>
+    </row>
+    <row r="57" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E57" s="10"/>
+    </row>
+    <row r="58" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D58" s="4"/>
+      <c r="E58" s="10"/>
+    </row>
+    <row r="59" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D59" s="4"/>
+      <c r="E59" s="10"/>
+    </row>
+    <row r="60" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D60" s="4"/>
+      <c r="E60" s="10"/>
+    </row>
+    <row r="61" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D61" s="4"/>
+      <c r="E61" s="10"/>
+    </row>
+    <row r="62" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D62" s="4"/>
+      <c r="E62" s="10"/>
+    </row>
+    <row r="63" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D63" s="4"/>
+      <c r="E63" s="10"/>
+    </row>
+    <row r="64" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D64" s="4"/>
+      <c r="E64" s="10"/>
+    </row>
+    <row r="65" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E65" s="10"/>
+    </row>
+    <row r="66" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E66" s="10"/>
+    </row>
+    <row r="67" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D67" s="4"/>
+      <c r="E67" s="10"/>
+    </row>
+    <row r="68" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E68" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:M116"/>
@@ -11460,8 +11788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11858,6 +12186,12 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B30" s="26" t="s">
+        <v>774</v>
+      </c>
+      <c r="C30" t="s">
+        <v>905</v>
+      </c>
       <c r="D30" s="4"/>
       <c r="E30" s="11"/>
     </row>
@@ -12030,6 +12364,19 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H68"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -12369,328 +12716,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H68"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="17.875" customWidth="1"/>
-    <col min="2" max="2" width="9.75" customWidth="1"/>
-    <col min="3" max="3" width="82.75" customWidth="1"/>
-    <col min="4" max="4" width="91.375" customWidth="1"/>
-    <col min="5" max="5" width="25.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
-        <v>579</v>
-      </c>
-      <c r="B1" s="33" t="s">
-        <v>577</v>
-      </c>
-      <c r="C1" s="32" t="s">
-        <v>578</v>
-      </c>
-      <c r="D1" s="32" t="s">
-        <v>191</v>
-      </c>
-      <c r="E1" s="32" t="s">
-        <v>522</v>
-      </c>
-      <c r="F1" s="32" t="s">
-        <v>523</v>
-      </c>
-      <c r="G1" s="32" t="s">
-        <v>571</v>
-      </c>
-      <c r="H1" s="32"/>
-    </row>
-    <row r="2" spans="1:8" ht="165" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>869</v>
-      </c>
-      <c r="B2" s="26">
-        <v>1</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>867</v>
-      </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="24"/>
-    </row>
-    <row r="3" spans="1:8" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>868</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="8"/>
-    </row>
-    <row r="4" spans="1:8" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="26"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="10"/>
-    </row>
-    <row r="5" spans="1:8" ht="303.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="10"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" spans="1:8" ht="378" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>870</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C7" s="10"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C9" s="22"/>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E13" s="10"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E14" s="10"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D15" s="34"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D16" s="4"/>
-      <c r="E16" s="10"/>
-    </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D17" s="4"/>
-      <c r="E17" s="10"/>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="E18" s="10"/>
-    </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="E19" s="10"/>
-    </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D20" s="4"/>
-      <c r="E20" s="10"/>
-    </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="E21" s="10"/>
-    </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D22" s="4"/>
-      <c r="E22" s="10"/>
-    </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D23" s="4"/>
-      <c r="E23" s="10"/>
-    </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D24" s="4"/>
-      <c r="E24" s="11"/>
-    </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D25" s="4"/>
-      <c r="E25" s="10"/>
-    </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D26" s="4"/>
-      <c r="E26" s="10"/>
-    </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D27" s="4"/>
-      <c r="E27" s="11"/>
-    </row>
-    <row r="28" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D28" s="4"/>
-      <c r="E28" s="10"/>
-    </row>
-    <row r="29" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D29" s="4"/>
-      <c r="E29" s="11"/>
-    </row>
-    <row r="30" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D30" s="4"/>
-      <c r="E30" s="10"/>
-    </row>
-    <row r="31" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D31" s="4"/>
-      <c r="E31" s="11"/>
-    </row>
-    <row r="32" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D32" s="4"/>
-      <c r="E32" s="10"/>
-    </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D33" s="4"/>
-      <c r="E33" s="11"/>
-    </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D34" s="4"/>
-      <c r="E34" s="10"/>
-    </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D35" s="4"/>
-      <c r="E35" s="11"/>
-    </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D36" s="4"/>
-      <c r="E36" s="10"/>
-    </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D37" s="4"/>
-      <c r="E37" s="11"/>
-    </row>
-    <row r="38" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="E38" s="10"/>
-    </row>
-    <row r="39" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="E39" s="11"/>
-    </row>
-    <row r="40" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D40" s="4"/>
-      <c r="E40" s="10"/>
-    </row>
-    <row r="41" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="E41" s="11"/>
-    </row>
-    <row r="42" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D42" s="22"/>
-      <c r="E42" s="10"/>
-    </row>
-    <row r="43" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="E43" s="11"/>
-    </row>
-    <row r="44" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="E44" s="10"/>
-    </row>
-    <row r="45" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="E45" s="11"/>
-    </row>
-    <row r="46" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="E46" s="10"/>
-    </row>
-    <row r="47" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="E47" s="11"/>
-    </row>
-    <row r="48" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="E48" s="10"/>
-    </row>
-    <row r="49" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="E49" s="10"/>
-    </row>
-    <row r="50" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="E50" s="10"/>
-    </row>
-    <row r="51" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="E51" s="10"/>
-    </row>
-    <row r="52" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D52" s="4"/>
-      <c r="E52" s="10"/>
-    </row>
-    <row r="53" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="E53" s="10"/>
-    </row>
-    <row r="54" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D54" s="4"/>
-      <c r="E54" s="10"/>
-    </row>
-    <row r="55" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="E55" s="10"/>
-    </row>
-    <row r="56" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D56" s="4"/>
-      <c r="E56" s="10"/>
-    </row>
-    <row r="57" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="E57" s="10"/>
-    </row>
-    <row r="58" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D58" s="4"/>
-      <c r="E58" s="10"/>
-    </row>
-    <row r="59" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D59" s="4"/>
-      <c r="E59" s="10"/>
-    </row>
-    <row r="60" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D60" s="4"/>
-      <c r="E60" s="10"/>
-    </row>
-    <row r="61" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D61" s="4"/>
-      <c r="E61" s="10"/>
-    </row>
-    <row r="62" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D62" s="4"/>
-      <c r="E62" s="10"/>
-    </row>
-    <row r="63" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D63" s="4"/>
-      <c r="E63" s="10"/>
-    </row>
-    <row r="64" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D64" s="4"/>
-      <c r="E64" s="10"/>
-    </row>
-    <row r="65" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="E65" s="10"/>
-    </row>
-    <row r="66" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="E66" s="10"/>
-    </row>
-    <row r="67" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D67" s="4"/>
-      <c r="E67" s="10"/>
-    </row>
-    <row r="68" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="E68" s="10"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/src/main/resources/알고리즘 문제 목록.xlsx
+++ b/src/main/resources/알고리즘 문제 목록.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SeongJin\git\Leetcode\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\Leetcode\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="906">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="909">
   <si>
     <t>수학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4790,6 +4790,28 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/restore-ip-addresses/</t>
+  </si>
+  <si>
+    <t>private int solution3(int n) {
+        int ans =0, cnt=1;
+        n--;
+        while (n &gt; 0) {
+            cnt++;
+            n-=cnt;
+            if(n%cnt==0)ans++;
+        }
+        return ans;
+    }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SumOfConsecutiveNaturalNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이전 결과를 이용하는 아이디어가 정말 빛난다
+투포인트 알고리즘의 응용버전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -12364,12 +12386,31 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A3:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="51.625" customWidth="1"/>
+    <col min="2" max="2" width="59.25" customWidth="1"/>
+    <col min="3" max="3" width="43.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" ht="165" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>907</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>906</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>908</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/resources/알고리즘 문제 목록.xlsx
+++ b/src/main/resources/알고리즘 문제 목록.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\Leetcode\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SeongJin\git\Leetcode\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="909">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="925">
   <si>
     <t>수학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4811,6 +4811,116 @@
   <si>
     <t>이전 결과를 이용하는 아이디어가 정말 빛난다
 투포인트 알고리즘의 응용버전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수열 추측하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 힌트 전에 못푼 문제들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조합 구하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dfs(int level, int start)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>check 배열이 필요한 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>path 배열이 필요한 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이전 방문 내역을 저장해야하는 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS 파라미터 유형
+가능하면 static 변수로 빼는게 풀때 깔끔하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인접 행렬, 인접 리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS와 연관되어서 문제가 출제된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS 팁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dfs(){
+  dfs(쓰는 경우)
+  dfs(안쓰는 경우)
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쓰냐 안쓰냐 문제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">중복을 허용하지 않으면 체크배열이 필요
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>한번 지났던 노드를 다시 지나야하면 check배열 해제가 필요!!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+이미 방문했다는 용도로도 사용 가능</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>dfs(Node root) - 트리
+dfs(int level)
+dfs(int level, int sum) - 가장 큰 경우의수의 합 
+dfs(int level, int start) - 조합 구하기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(start받으므로 check배열 노필요!)</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -12386,10 +12496,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:C3"/>
+  <dimension ref="A3:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12410,9 +12520,77 @@
         <v>908</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>909</v>
+      </c>
+      <c r="B7" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>912</v>
+      </c>
+      <c r="C8" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="42" t="s">
+        <v>920</v>
+      </c>
+      <c r="B9" s="42"/>
+    </row>
+    <row r="10" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>917</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>914</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>915</v>
+      </c>
+      <c r="B12" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>918</v>
+      </c>
+      <c r="B13" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>922</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>921</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/src/main/resources/알고리즘 문제 목록.xlsx
+++ b/src/main/resources/알고리즘 문제 목록.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="925">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="929">
   <si>
     <t>수학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4921,6 +4921,23 @@
       </rPr>
       <t>(start받으므로 check배열 노필요!)</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS와 BFS의 차이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS는 모든 경우의 수!
+BFS는 최단 경로!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작점에 대한 check를 안하는 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미로문제에서 DFS 결과값이 정답의 2배인 경우</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -12496,10 +12513,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:C14"/>
+  <dimension ref="A3:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12585,6 +12602,22 @@
       </c>
       <c r="B14" s="4" t="s">
         <v>921</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>925</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>928</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>927</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/알고리즘 문제 목록.xlsx
+++ b/src/main/resources/알고리즘 문제 목록.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="929">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="931">
   <si>
     <t>수학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4904,6 +4904,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>DFS와 BFS의 차이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS는 모든 경우의 수!
+BFS는 최단 경로!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작점에 대한 check를 안하는 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미로문제에서 DFS 결과값이 정답의 2배인 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BFS 파라미터 유형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>dfs(Node root) - 트리
 dfs(int level)
@@ -4924,20 +4945,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DFS와 BFS의 차이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DFS는 모든 경우의 수!
-BFS는 최단 경로!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시작점에 대한 check를 안하는 경우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미로문제에서 DFS 결과값이 정답의 2배인 경우</t>
+    <t>bfs(Node root) - 트리
+bfs(int start)
+--------------------------
+시작점을 넣는 bfs 유형
+bfs()
+--------------------------
+시작점이 여러 개인 bfs인경우 queue를 static으로 선언</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -12513,10 +12527,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:C18"/>
+  <dimension ref="A3:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12569,7 +12583,7 @@
         <v>917</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>924</v>
+        <v>929</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
@@ -12606,18 +12620,26 @@
     </row>
     <row r="16" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>924</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>925</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>926</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>927</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="132" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>928</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>927</v>
+      <c r="B20" s="4" t="s">
+        <v>930</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/알고리즘 문제 목록.xlsx
+++ b/src/main/resources/알고리즘 문제 목록.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SeongJin\git\Leetcode\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\algorithm\Leetcode\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="9975" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14390" windowHeight="9980" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="BASIC" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="931">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="933">
   <si>
     <t>수학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4954,12 +4954,22 @@
 시작점이 여러 개인 bfs인경우 queue를 static으로 선언</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>그리디의 알고리즘의 종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. 특정 조건을 기준으로 정렬한 다음, 
+   O(n)으로 처리하는 알고리즘 방식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5042,6 +5052,15 @@
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -5169,7 +5188,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5303,6 +5322,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5865,27 +5887,27 @@
       <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="3.625" customWidth="1"/>
-    <col min="3" max="3" width="31.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.625" customWidth="1"/>
-    <col min="6" max="6" width="12.125" customWidth="1"/>
+    <col min="1" max="2" width="3.58203125" customWidth="1"/>
+    <col min="3" max="3" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.58203125" customWidth="1"/>
+    <col min="6" max="6" width="12.08203125" customWidth="1"/>
     <col min="7" max="7" width="39" customWidth="1"/>
     <col min="8" max="8" width="57.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.58203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="46.25" customWidth="1"/>
-    <col min="11" max="11" width="47.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="40.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="47.58203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="40.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:12" x14ac:dyDescent="0.45">
       <c r="I3" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
@@ -5917,7 +5939,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
         <v>172</v>
       </c>
@@ -5941,7 +5963,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E6" s="1" t="s">
         <v>5</v>
       </c>
@@ -5959,7 +5981,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
@@ -5977,7 +5999,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E8" s="1" t="s">
         <v>11</v>
       </c>
@@ -5998,7 +6020,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E9" s="1" t="s">
         <v>13</v>
       </c>
@@ -6019,7 +6041,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E10" s="1" t="s">
         <v>15</v>
       </c>
@@ -6040,7 +6062,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="11" spans="3:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E11" s="1" t="s">
         <v>16</v>
       </c>
@@ -6058,7 +6080,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="12" spans="3:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D12" s="5" t="s">
         <v>18</v>
       </c>
@@ -6086,7 +6108,7 @@
       </c>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E13" s="1" t="s">
         <v>21</v>
       </c>
@@ -6104,7 +6126,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="14" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E14" s="2"/>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
@@ -6120,7 +6142,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="15" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E15" s="2"/>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
@@ -6136,7 +6158,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="16" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E16" s="1" t="s">
         <v>25</v>
       </c>
@@ -6157,7 +6179,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="17" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E17" s="2"/>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
@@ -6173,7 +6195,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="18" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E18" s="2"/>
       <c r="H18" t="s">
         <v>28</v>
@@ -6185,7 +6207,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="19" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E19" s="1" t="s">
         <v>29</v>
       </c>
@@ -6203,7 +6225,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="20" spans="4:12" ht="66.75" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:12" ht="68.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D20" s="5" t="s">
         <v>202</v>
       </c>
@@ -6229,7 +6251,7 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E21" s="1" t="s">
         <v>33</v>
       </c>
@@ -6247,7 +6269,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="22" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E22" s="1" t="s">
         <v>35</v>
       </c>
@@ -6265,7 +6287,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="23" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E23" s="1" t="s">
         <v>37</v>
       </c>
@@ -6283,7 +6305,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="24" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E24" s="1" t="s">
         <v>39</v>
       </c>
@@ -6304,7 +6326,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="25" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E25" s="2"/>
       <c r="G25" t="str">
         <f t="shared" si="1"/>
@@ -6320,7 +6342,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="26" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E26" s="1" t="s">
         <v>42</v>
       </c>
@@ -6341,7 +6363,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="27" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E27" s="1" t="s">
         <v>44</v>
       </c>
@@ -6362,7 +6384,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="28" spans="4:12" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="4:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E28" s="1" t="s">
         <v>47</v>
       </c>
@@ -6383,7 +6405,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="29" spans="4:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="4:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D29" s="5" t="s">
         <v>199</v>
       </c>
@@ -6409,7 +6431,7 @@
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
     </row>
-    <row r="30" spans="4:12" ht="66" x14ac:dyDescent="0.3">
+    <row r="30" spans="4:12" ht="68" x14ac:dyDescent="0.45">
       <c r="D30" s="8"/>
       <c r="E30" s="9" t="s">
         <v>204</v>
@@ -6433,7 +6455,7 @@
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
     </row>
-    <row r="31" spans="4:12" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="4:12" ht="119" x14ac:dyDescent="0.45">
       <c r="E31" s="1" t="s">
         <v>42</v>
       </c>
@@ -6457,7 +6479,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="32" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E32" s="1" t="s">
         <v>44</v>
       </c>
@@ -6478,7 +6500,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="33" spans="4:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:12" ht="34" x14ac:dyDescent="0.45">
       <c r="E33" s="1" t="s">
         <v>51</v>
       </c>
@@ -6499,7 +6521,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="34" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E34" s="1" t="s">
         <v>48</v>
       </c>
@@ -6517,7 +6539,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="35" spans="4:12" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="4:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E35" s="1" t="s">
         <v>49</v>
       </c>
@@ -6538,7 +6560,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="36" spans="4:12" ht="33.75" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:12" ht="34.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D36" s="5" t="s">
         <v>201</v>
       </c>
@@ -6564,7 +6586,7 @@
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
     </row>
-    <row r="37" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="4:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E37" s="1" t="s">
         <v>48</v>
       </c>
@@ -6585,7 +6607,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="38" spans="4:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D38" s="5" t="s">
         <v>56</v>
       </c>
@@ -6607,7 +6629,7 @@
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
     </row>
-    <row r="39" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E39" s="1" t="s">
         <v>61</v>
       </c>
@@ -6622,7 +6644,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E40" s="2"/>
       <c r="G40" t="str">
         <f t="shared" si="0"/>
@@ -6632,7 +6654,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E41" s="1" t="s">
         <v>62</v>
       </c>
@@ -6647,7 +6669,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E42" s="1" t="s">
         <v>64</v>
       </c>
@@ -6662,7 +6684,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E43" s="2"/>
       <c r="G43" t="str">
         <f t="shared" si="0"/>
@@ -6672,7 +6694,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E44" s="1" t="s">
         <v>67</v>
       </c>
@@ -6687,7 +6709,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E45" s="1" t="s">
         <v>69</v>
       </c>
@@ -6702,7 +6724,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E46" s="2"/>
       <c r="G46" t="str">
         <f t="shared" si="0"/>
@@ -6712,7 +6734,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E47" s="1" t="s">
         <v>73</v>
       </c>
@@ -6727,7 +6749,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E48" s="1" t="s">
         <v>74</v>
       </c>
@@ -6742,7 +6764,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E49" s="2"/>
       <c r="G49" t="str">
         <f t="shared" si="0"/>
@@ -6752,7 +6774,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E50" s="1" t="s">
         <v>77</v>
       </c>
@@ -6767,7 +6789,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="51" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E51" s="2"/>
       <c r="G51" t="str">
         <f t="shared" si="0"/>
@@ -6777,7 +6799,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E52" s="1" t="s">
         <v>80</v>
       </c>
@@ -6792,7 +6814,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E53" s="2"/>
       <c r="G53" t="str">
         <f t="shared" si="0"/>
@@ -6802,7 +6824,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="54" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E54" s="1" t="s">
         <v>83</v>
       </c>
@@ -6817,7 +6839,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="55" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E55" s="2"/>
       <c r="G55" t="str">
         <f t="shared" si="0"/>
@@ -6827,7 +6849,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E56" s="1" t="s">
         <v>86</v>
       </c>
@@ -6842,7 +6864,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="57" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="4:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E57" s="1"/>
       <c r="G57" t="str">
         <f t="shared" si="0"/>
@@ -6852,7 +6874,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="4:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D58" s="5" t="s">
         <v>89</v>
       </c>
@@ -6878,7 +6900,7 @@
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
     </row>
-    <row r="59" spans="4:12" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="59" spans="4:12" ht="51" x14ac:dyDescent="0.45">
       <c r="E59" s="1" t="s">
         <v>92</v>
       </c>
@@ -6902,7 +6924,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="60" spans="4:12" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:12" ht="51" x14ac:dyDescent="0.45">
       <c r="E60" t="s">
         <v>221</v>
       </c>
@@ -6916,7 +6938,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="61" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="4:12" x14ac:dyDescent="0.45">
       <c r="H61" t="s">
         <v>95</v>
       </c>
@@ -6927,7 +6949,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="62" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E62" s="1" t="s">
         <v>96</v>
       </c>
@@ -6948,7 +6970,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="63" spans="4:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="63" spans="4:12" ht="34" x14ac:dyDescent="0.45">
       <c r="E63" s="1" t="s">
         <v>98</v>
       </c>
@@ -6969,7 +6991,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="64" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E64" s="1" t="s">
         <v>100</v>
       </c>
@@ -6987,7 +7009,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="65" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E65" t="s">
         <v>103</v>
       </c>
@@ -7002,7 +7024,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="66" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E66" s="1" t="s">
         <v>104</v>
       </c>
@@ -7020,7 +7042,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="67" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E67" s="1" t="s">
         <v>106</v>
       </c>
@@ -7038,7 +7060,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="68" spans="5:11" ht="66" x14ac:dyDescent="0.3">
+    <row r="68" spans="5:11" ht="51" x14ac:dyDescent="0.45">
       <c r="E68" s="1" t="s">
         <v>108</v>
       </c>
@@ -7059,7 +7081,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="69" spans="5:11" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="69" spans="5:11" ht="51" x14ac:dyDescent="0.45">
       <c r="E69" s="1" t="s">
         <v>110</v>
       </c>
@@ -7080,7 +7102,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="70" spans="5:11" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="70" spans="5:11" ht="85" x14ac:dyDescent="0.45">
       <c r="E70" s="1" t="s">
         <v>112</v>
       </c>
@@ -7101,7 +7123,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="71" spans="5:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="71" spans="5:11" ht="34" x14ac:dyDescent="0.45">
       <c r="E71" s="1" t="s">
         <v>114</v>
       </c>
@@ -7125,7 +7147,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="72" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E72" t="s">
         <v>117</v>
       </c>
@@ -7143,7 +7165,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="73" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E73" s="1" t="s">
         <v>118</v>
       </c>
@@ -7161,7 +7183,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="74" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E74" t="s">
         <v>121</v>
       </c>
@@ -7172,7 +7194,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="75" spans="5:11" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="75" spans="5:11" ht="51" x14ac:dyDescent="0.45">
       <c r="E75" s="1" t="s">
         <v>122</v>
       </c>
@@ -7196,7 +7218,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="76" spans="5:11" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="76" spans="5:11" ht="85" x14ac:dyDescent="0.45">
       <c r="E76" s="1" t="s">
         <v>124</v>
       </c>
@@ -7220,25 +7242,25 @@
         <v>235</v>
       </c>
     </row>
-    <row r="183" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E183" t="str">
         <f>IF(D183="","",CONCATENATE("https://www.acmicpc.net/problem/",D183))</f>
         <v/>
       </c>
     </row>
-    <row r="184" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E184" t="str">
         <f>IF(D184="","",CONCATENATE("https://www.acmicpc.net/problem/",D184))</f>
         <v/>
       </c>
     </row>
-    <row r="185" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E185" t="str">
         <f>IF(D185="","",CONCATENATE("https://www.acmicpc.net/problem/",D185))</f>
         <v/>
       </c>
     </row>
-    <row r="186" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E186" t="str">
         <f>IF(D186="","",CONCATENATE("https://www.acmicpc.net/problem/",D186))</f>
         <v/>
@@ -7259,16 +7281,16 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.875" customWidth="1"/>
+    <col min="1" max="1" width="17.83203125" customWidth="1"/>
     <col min="2" max="2" width="9.75" customWidth="1"/>
     <col min="3" max="3" width="82.75" customWidth="1"/>
-    <col min="4" max="4" width="91.375" customWidth="1"/>
-    <col min="5" max="5" width="25.375" customWidth="1"/>
+    <col min="4" max="4" width="91.33203125" customWidth="1"/>
+    <col min="5" max="5" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="33" t="s">
         <v>579</v>
       </c>
@@ -7292,7 +7314,7 @@
       </c>
       <c r="H1" s="32"/>
     </row>
-    <row r="2" spans="1:8" ht="165" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="170" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>869</v>
       </c>
@@ -7308,7 +7330,7 @@
       <c r="G2" s="8"/>
       <c r="H2" s="24"/>
     </row>
-    <row r="3" spans="1:8" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="409.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>868</v>
       </c>
@@ -7319,18 +7341,18 @@
       <c r="D3" s="4"/>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="409.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="26"/>
       <c r="C4" s="8"/>
       <c r="D4" s="4"/>
       <c r="E4" s="10"/>
     </row>
-    <row r="5" spans="1:8" ht="303.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="303.64999999999998" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C5" s="10"/>
       <c r="D5" s="4"/>
       <c r="E5" s="10"/>
     </row>
-    <row r="6" spans="1:8" ht="378" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="378" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>870</v>
       </c>
@@ -7341,230 +7363,230 @@
       <c r="D6" s="4"/>
       <c r="E6" s="10"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="C7" s="10"/>
       <c r="D7" s="4"/>
       <c r="E7" s="10"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="4"/>
       <c r="C8" s="35"/>
       <c r="D8" s="4"/>
       <c r="E8" s="10"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="C9" s="22"/>
       <c r="E9" s="10"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="E10" s="10"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="E11" s="10"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="E12" s="10"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="E13" s="10"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="E14" s="10"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="D15" s="34"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="D16" s="4"/>
       <c r="E16" s="10"/>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D17" s="4"/>
       <c r="E17" s="10"/>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E18" s="10"/>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E19" s="10"/>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D20" s="4"/>
       <c r="E20" s="10"/>
     </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E21" s="10"/>
     </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D22" s="4"/>
       <c r="E22" s="10"/>
     </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D23" s="4"/>
       <c r="E23" s="10"/>
     </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D24" s="4"/>
       <c r="E24" s="11"/>
     </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D25" s="4"/>
       <c r="E25" s="10"/>
     </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D26" s="4"/>
       <c r="E26" s="10"/>
     </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D27" s="4"/>
       <c r="E27" s="11"/>
     </row>
-    <row r="28" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D28" s="4"/>
       <c r="E28" s="10"/>
     </row>
-    <row r="29" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D29" s="4"/>
       <c r="E29" s="11"/>
     </row>
-    <row r="30" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D30" s="4"/>
       <c r="E30" s="10"/>
     </row>
-    <row r="31" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D31" s="4"/>
       <c r="E31" s="11"/>
     </row>
-    <row r="32" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D32" s="4"/>
       <c r="E32" s="10"/>
     </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D33" s="4"/>
       <c r="E33" s="11"/>
     </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D34" s="4"/>
       <c r="E34" s="10"/>
     </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D35" s="4"/>
       <c r="E35" s="11"/>
     </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D36" s="4"/>
       <c r="E36" s="10"/>
     </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D37" s="4"/>
       <c r="E37" s="11"/>
     </row>
-    <row r="38" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E38" s="10"/>
     </row>
-    <row r="39" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E39" s="11"/>
     </row>
-    <row r="40" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D40" s="4"/>
       <c r="E40" s="10"/>
     </row>
-    <row r="41" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E41" s="11"/>
     </row>
-    <row r="42" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D42" s="22"/>
       <c r="E42" s="10"/>
     </row>
-    <row r="43" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E43" s="11"/>
     </row>
-    <row r="44" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E44" s="10"/>
     </row>
-    <row r="45" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E45" s="11"/>
     </row>
-    <row r="46" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E46" s="10"/>
     </row>
-    <row r="47" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E47" s="11"/>
     </row>
-    <row r="48" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E48" s="10"/>
     </row>
-    <row r="49" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E49" s="10"/>
     </row>
-    <row r="50" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E50" s="10"/>
     </row>
-    <row r="51" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E51" s="10"/>
     </row>
-    <row r="52" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D52" s="4"/>
       <c r="E52" s="10"/>
     </row>
-    <row r="53" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E53" s="10"/>
     </row>
-    <row r="54" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D54" s="4"/>
       <c r="E54" s="10"/>
     </row>
-    <row r="55" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E55" s="10"/>
     </row>
-    <row r="56" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D56" s="4"/>
       <c r="E56" s="10"/>
     </row>
-    <row r="57" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E57" s="10"/>
     </row>
-    <row r="58" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D58" s="4"/>
       <c r="E58" s="10"/>
     </row>
-    <row r="59" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D59" s="4"/>
       <c r="E59" s="10"/>
     </row>
-    <row r="60" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D60" s="4"/>
       <c r="E60" s="10"/>
     </row>
-    <row r="61" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D61" s="4"/>
       <c r="E61" s="10"/>
     </row>
-    <row r="62" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D62" s="4"/>
       <c r="E62" s="10"/>
     </row>
-    <row r="63" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D63" s="4"/>
       <c r="E63" s="10"/>
     </row>
-    <row r="64" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D64" s="4"/>
       <c r="E64" s="10"/>
     </row>
-    <row r="65" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E65" s="10"/>
     </row>
-    <row r="66" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E66" s="10"/>
     </row>
-    <row r="67" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D67" s="4"/>
       <c r="E67" s="10"/>
     </row>
-    <row r="68" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E68" s="10"/>
     </row>
   </sheetData>
@@ -7583,22 +7605,22 @@
       <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="42" customWidth="1"/>
     <col min="4" max="4" width="22.75" customWidth="1"/>
-    <col min="5" max="5" width="26.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.125" customWidth="1"/>
+    <col min="5" max="5" width="26.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.08203125" customWidth="1"/>
     <col min="7" max="7" width="37.5" customWidth="1"/>
     <col min="8" max="8" width="62" customWidth="1"/>
     <col min="9" max="9" width="9.75" customWidth="1"/>
     <col min="10" max="10" width="31" style="1" customWidth="1"/>
-    <col min="11" max="11" width="62.875" customWidth="1"/>
-    <col min="12" max="12" width="34.875" customWidth="1"/>
+    <col min="11" max="11" width="62.83203125" customWidth="1"/>
+    <col min="12" max="12" width="34.83203125" customWidth="1"/>
     <col min="13" max="13" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:13" x14ac:dyDescent="0.45">
       <c r="J2" s="1" t="s">
         <v>277</v>
       </c>
@@ -7606,7 +7628,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:13" x14ac:dyDescent="0.45">
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
@@ -7641,7 +7663,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:13" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
         <v>248</v>
       </c>
@@ -7649,7 +7671,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="5" spans="3:13" ht="99" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:13" ht="102" x14ac:dyDescent="0.45">
       <c r="E5" s="14" t="s">
         <v>256</v>
       </c>
@@ -7676,7 +7698,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="6" spans="3:13" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:13" ht="51" x14ac:dyDescent="0.45">
       <c r="E6" s="14" t="s">
         <v>257</v>
       </c>
@@ -7693,7 +7715,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:13" x14ac:dyDescent="0.45">
       <c r="E7" s="1" t="s">
         <v>128</v>
       </c>
@@ -7717,7 +7739,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:13" x14ac:dyDescent="0.45">
       <c r="E8" s="1" t="s">
         <v>130</v>
       </c>
@@ -7741,7 +7763,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:13" x14ac:dyDescent="0.45">
       <c r="E9" s="1" t="s">
         <v>132</v>
       </c>
@@ -7762,7 +7784,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="10" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:13" x14ac:dyDescent="0.45">
       <c r="E10" s="1" t="s">
         <v>134</v>
       </c>
@@ -7783,7 +7805,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:13" x14ac:dyDescent="0.45">
       <c r="E11" s="1" t="s">
         <v>136</v>
       </c>
@@ -7804,7 +7826,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:13" x14ac:dyDescent="0.45">
       <c r="E12" s="1" t="s">
         <v>138</v>
       </c>
@@ -7825,7 +7847,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="13" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:13" x14ac:dyDescent="0.45">
       <c r="E13" s="1" t="s">
         <v>140</v>
       </c>
@@ -7846,7 +7868,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="14" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:13" x14ac:dyDescent="0.45">
       <c r="E14" s="1" t="s">
         <v>142</v>
       </c>
@@ -7867,7 +7889,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:13" x14ac:dyDescent="0.45">
       <c r="E15" s="1" t="s">
         <v>144</v>
       </c>
@@ -7888,7 +7910,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="16" spans="3:13" ht="33" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:13" ht="34" x14ac:dyDescent="0.45">
       <c r="E16" s="1" t="s">
         <v>146</v>
       </c>
@@ -7912,7 +7934,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="17" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E17" s="1" t="s">
         <v>148</v>
       </c>
@@ -7933,7 +7955,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="18" spans="5:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:11" ht="34" x14ac:dyDescent="0.45">
       <c r="E18" s="1" t="s">
         <v>150</v>
       </c>
@@ -7957,7 +7979,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="19" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E19" s="1" t="s">
         <v>153</v>
       </c>
@@ -7981,7 +8003,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="20" spans="5:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:11" ht="34" x14ac:dyDescent="0.45">
       <c r="E20" s="1" t="s">
         <v>154</v>
       </c>
@@ -8005,7 +8027,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="21" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E21" s="1" t="s">
         <v>156</v>
       </c>
@@ -8026,7 +8048,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="22" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E22" s="1" t="s">
         <v>158</v>
       </c>
@@ -8047,7 +8069,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="23" spans="5:11" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="5:11" ht="51" x14ac:dyDescent="0.45">
       <c r="H23" t="s">
         <v>160</v>
       </c>
@@ -8061,7 +8083,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="24" spans="5:11" ht="66" x14ac:dyDescent="0.3">
+    <row r="24" spans="5:11" ht="68" x14ac:dyDescent="0.45">
       <c r="E24" s="1" t="s">
         <v>161</v>
       </c>
@@ -8085,7 +8107,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="25" spans="5:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="25" spans="5:11" ht="34" x14ac:dyDescent="0.45">
       <c r="H25" t="s">
         <v>162</v>
       </c>
@@ -8099,7 +8121,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="26" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E26" s="1" t="s">
         <v>163</v>
       </c>
@@ -8120,7 +8142,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="27" spans="5:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="27" spans="5:11" ht="34" x14ac:dyDescent="0.45">
       <c r="E27" s="1" t="s">
         <v>165</v>
       </c>
@@ -8144,7 +8166,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="28" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E28" s="1" t="s">
         <v>167</v>
       </c>
@@ -8165,7 +8187,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="29" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E29" s="1" t="s">
         <v>169</v>
       </c>
@@ -8189,7 +8211,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="30" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="5:11" x14ac:dyDescent="0.45">
       <c r="H30" t="s">
         <v>171</v>
       </c>
@@ -8200,7 +8222,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="31" spans="5:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="31" spans="5:11" ht="34" x14ac:dyDescent="0.45">
       <c r="E31" s="1" t="s">
         <v>245</v>
       </c>
@@ -8224,7 +8246,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="32" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="5:11" x14ac:dyDescent="0.45">
       <c r="H32" t="s">
         <v>246</v>
       </c>
@@ -8235,7 +8257,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="33" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E33" s="1" t="s">
         <v>243</v>
       </c>
@@ -8259,7 +8281,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="34" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E34" s="1" t="s">
         <v>240</v>
       </c>
@@ -8280,7 +8302,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="35" spans="4:13" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="4:13" ht="51.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E35" s="1" t="s">
         <v>239</v>
       </c>
@@ -8304,7 +8326,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="36" spans="4:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:13" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D36" s="5" t="s">
         <v>249</v>
       </c>
@@ -8318,7 +8340,7 @@
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
     </row>
-    <row r="37" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E37" s="15" t="s">
         <v>250</v>
       </c>
@@ -8336,7 +8358,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="38" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:13" x14ac:dyDescent="0.45">
       <c r="H38" t="s">
         <v>252</v>
       </c>
@@ -8344,7 +8366,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="39" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:13" x14ac:dyDescent="0.45">
       <c r="H39" t="s">
         <v>253</v>
       </c>
@@ -8352,7 +8374,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="40" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:13" x14ac:dyDescent="0.45">
       <c r="H40" t="s">
         <v>254</v>
       </c>
@@ -8360,7 +8382,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="41" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:13" x14ac:dyDescent="0.45">
       <c r="H41" t="s">
         <v>289</v>
       </c>
@@ -8368,7 +8390,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="42" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E42" s="1" t="s">
         <v>291</v>
       </c>
@@ -8386,7 +8408,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="43" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:13" x14ac:dyDescent="0.45">
       <c r="H43" t="s">
         <v>293</v>
       </c>
@@ -8394,7 +8416,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="44" spans="4:13" ht="33" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:13" ht="34" x14ac:dyDescent="0.45">
       <c r="E44" s="14" t="s">
         <v>308</v>
       </c>
@@ -8412,7 +8434,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="45" spans="4:13" ht="33" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:13" ht="34" x14ac:dyDescent="0.45">
       <c r="E45" s="14" t="s">
         <v>306</v>
       </c>
@@ -8423,7 +8445,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="46" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E46" s="1" t="s">
         <v>299</v>
       </c>
@@ -8441,7 +8463,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="47" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E47" s="1" t="s">
         <v>300</v>
       </c>
@@ -8459,7 +8481,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="48" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E48" s="1" t="s">
         <v>302</v>
       </c>
@@ -8477,7 +8499,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="49" spans="4:13" ht="33" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:13" ht="34" x14ac:dyDescent="0.45">
       <c r="E49" s="14" t="s">
         <v>307</v>
       </c>
@@ -8495,7 +8517,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="50" spans="4:13" ht="33" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:13" ht="34" x14ac:dyDescent="0.45">
       <c r="E50" s="14" t="s">
         <v>309</v>
       </c>
@@ -8506,7 +8528,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="51" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E51" s="1" t="s">
         <v>311</v>
       </c>
@@ -8524,7 +8546,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="52" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E52" s="1" t="s">
         <v>313</v>
       </c>
@@ -8542,7 +8564,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="53" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E53" s="1" t="s">
         <v>315</v>
       </c>
@@ -8560,7 +8582,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="54" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E54" s="1" t="s">
         <v>317</v>
       </c>
@@ -8578,7 +8600,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="55" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E55" s="1" t="s">
         <v>319</v>
       </c>
@@ -8596,7 +8618,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="56" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="4:13" x14ac:dyDescent="0.45">
       <c r="H56" t="s">
         <v>321</v>
       </c>
@@ -8604,7 +8626,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="57" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E57" s="1" t="s">
         <v>322</v>
       </c>
@@ -8622,7 +8644,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="58" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E58" s="1" t="s">
         <v>325</v>
       </c>
@@ -8640,7 +8662,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="59" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E59" s="1" t="s">
         <v>326</v>
       </c>
@@ -8658,7 +8680,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="60" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E60" s="1" t="s">
         <v>328</v>
       </c>
@@ -8676,7 +8698,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="61" spans="4:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="4:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E61" s="1" t="s">
         <v>330</v>
       </c>
@@ -8694,7 +8716,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="62" spans="4:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="4:13" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D62" s="5" t="s">
         <v>332</v>
       </c>
@@ -8708,7 +8730,7 @@
       <c r="L62" s="5"/>
       <c r="M62" s="5"/>
     </row>
-    <row r="63" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E63" s="1" t="s">
         <v>243</v>
       </c>
@@ -8726,7 +8748,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="64" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E64" s="1" t="s">
         <v>334</v>
       </c>
@@ -8744,7 +8766,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="65" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E65" s="1" t="s">
         <v>336</v>
       </c>
@@ -8762,7 +8784,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="66" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E66" s="1" t="s">
         <v>338</v>
       </c>
@@ -8780,7 +8802,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="67" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E67" s="1" t="s">
         <v>142</v>
       </c>
@@ -8795,7 +8817,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="68" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E68" s="1" t="s">
         <v>340</v>
       </c>
@@ -8813,7 +8835,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="69" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E69" s="1" t="s">
         <v>342</v>
       </c>
@@ -8831,7 +8853,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="70" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E70" s="1" t="s">
         <v>344</v>
       </c>
@@ -8849,7 +8871,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="71" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E71" s="1" t="s">
         <v>346</v>
       </c>
@@ -8867,7 +8889,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="72" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E72" s="1" t="s">
         <v>348</v>
       </c>
@@ -8885,7 +8907,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="73" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="4:13" x14ac:dyDescent="0.45">
       <c r="H73" t="s">
         <v>354</v>
       </c>
@@ -8893,7 +8915,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="74" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="4:13" x14ac:dyDescent="0.45">
       <c r="H74" t="s">
         <v>355</v>
       </c>
@@ -8901,7 +8923,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="75" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="4:13" x14ac:dyDescent="0.45">
       <c r="H75" t="s">
         <v>356</v>
       </c>
@@ -8909,7 +8931,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="76" spans="4:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="4:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="H76" t="s">
         <v>357</v>
       </c>
@@ -8917,7 +8939,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="77" spans="4:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="4:13" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D77" s="5" t="s">
         <v>358</v>
       </c>
@@ -8931,7 +8953,7 @@
       <c r="L77" s="5"/>
       <c r="M77" s="5"/>
     </row>
-    <row r="78" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E78" s="1" t="s">
         <v>360</v>
       </c>
@@ -8949,7 +8971,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="79" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E79" s="1" t="s">
         <v>362</v>
       </c>
@@ -8967,7 +8989,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="80" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E80" s="1" t="s">
         <v>364</v>
       </c>
@@ -8985,7 +9007,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="81" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="4:13" x14ac:dyDescent="0.45">
       <c r="G81" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8997,7 +9019,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="82" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E82" s="1" t="s">
         <v>365</v>
       </c>
@@ -9010,7 +9032,7 @@
       </c>
       <c r="J82" s="16"/>
     </row>
-    <row r="83" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E83" s="1" t="s">
         <v>368</v>
       </c>
@@ -9028,7 +9050,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="84" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E84" s="1" t="s">
         <v>370</v>
       </c>
@@ -9046,7 +9068,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="85" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="4:13" x14ac:dyDescent="0.45">
       <c r="G85" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -9058,7 +9080,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="86" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E86" s="1" t="s">
         <v>373</v>
       </c>
@@ -9076,7 +9098,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="87" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E87" s="1" t="s">
         <v>375</v>
       </c>
@@ -9094,7 +9116,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="88" spans="4:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="4:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E88" s="1" t="s">
         <v>377</v>
       </c>
@@ -9112,7 +9134,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="89" spans="4:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="4:13" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D89" s="5" t="s">
         <v>389</v>
       </c>
@@ -9126,7 +9148,7 @@
       <c r="L89" s="5"/>
       <c r="M89" s="5"/>
     </row>
-    <row r="90" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E90" s="1" t="s">
         <v>390</v>
       </c>
@@ -9144,7 +9166,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="91" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E91" s="1" t="s">
         <v>392</v>
       </c>
@@ -9162,7 +9184,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="92" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E92" s="1" t="s">
         <v>394</v>
       </c>
@@ -9180,7 +9202,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="93" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E93" s="1" t="s">
         <v>396</v>
       </c>
@@ -9198,7 +9220,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="94" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E94" s="1" t="s">
         <v>398</v>
       </c>
@@ -9216,7 +9238,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="95" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E95" s="1" t="s">
         <v>437</v>
       </c>
@@ -9234,7 +9256,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="96" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E96" s="1" t="s">
         <v>401</v>
       </c>
@@ -9252,7 +9274,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="97" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="5:10" x14ac:dyDescent="0.45">
       <c r="G97" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -9264,7 +9286,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="98" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E98" s="1" t="s">
         <v>404</v>
       </c>
@@ -9282,7 +9304,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="99" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E99" s="1" t="s">
         <v>406</v>
       </c>
@@ -9300,7 +9322,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="100" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E100" s="1" t="s">
         <v>408</v>
       </c>
@@ -9318,7 +9340,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="101" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E101" s="1" t="s">
         <v>410</v>
       </c>
@@ -9339,12 +9361,12 @@
         <v>444</v>
       </c>
     </row>
-    <row r="102" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="5:10" x14ac:dyDescent="0.45">
       <c r="J102" s="16" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="103" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E103" s="1" t="s">
         <v>412</v>
       </c>
@@ -9362,7 +9384,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="104" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E104" s="1" t="s">
         <v>414</v>
       </c>
@@ -9380,7 +9402,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="105" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="5:10" x14ac:dyDescent="0.45">
       <c r="H105" t="s">
         <v>416</v>
       </c>
@@ -9388,7 +9410,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="106" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E106" s="1" t="s">
         <v>417</v>
       </c>
@@ -9406,7 +9428,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="107" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="5:10" x14ac:dyDescent="0.45">
       <c r="G107" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -9418,7 +9440,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="108" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E108" s="1" t="s">
         <v>420</v>
       </c>
@@ -9436,7 +9458,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="109" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="5:10" x14ac:dyDescent="0.45">
       <c r="H109" t="s">
         <v>422</v>
       </c>
@@ -9444,7 +9466,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="110" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E110" s="1" t="s">
         <v>423</v>
       </c>
@@ -9462,7 +9484,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="111" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E111" s="1" t="s">
         <v>425</v>
       </c>
@@ -9483,7 +9505,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="112" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="5:10" x14ac:dyDescent="0.45">
       <c r="F112" t="s">
         <v>432</v>
       </c>
@@ -9494,12 +9516,12 @@
         <v>453</v>
       </c>
     </row>
-    <row r="113" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="5:10" x14ac:dyDescent="0.45">
       <c r="J113" s="16" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="114" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E114" s="1" t="s">
         <v>428</v>
       </c>
@@ -9517,7 +9539,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="115" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E115" s="1" t="s">
         <v>430</v>
       </c>
@@ -9538,7 +9560,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="116" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="5:10" x14ac:dyDescent="0.45">
       <c r="J116" s="16" t="s">
         <v>486</v>
       </c>
@@ -9561,15 +9583,15 @@
       <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="32.75" customWidth="1"/>
     <col min="2" max="2" width="25.25" customWidth="1"/>
     <col min="3" max="3" width="59" customWidth="1"/>
-    <col min="4" max="4" width="22.375" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="31" t="s">
         <v>508</v>
       </c>
@@ -9590,7 +9612,7 @@
       </c>
       <c r="G2" s="32"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="23" t="s">
         <v>509</v>
       </c>
@@ -9601,7 +9623,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="24"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="25"/>
       <c r="B4" s="26" t="s">
         <v>524</v>
@@ -9614,7 +9636,7 @@
       <c r="F4" s="8"/>
       <c r="G4" s="24"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="25"/>
       <c r="B5" s="26" t="s">
         <v>527</v>
@@ -9627,7 +9649,7 @@
       <c r="F5" s="8"/>
       <c r="G5" s="24"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="25"/>
       <c r="B6" s="26" t="s">
         <v>532</v>
@@ -9642,7 +9664,7 @@
       <c r="F6" s="8"/>
       <c r="G6" s="24"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="25"/>
       <c r="B7" s="26" t="s">
         <v>533</v>
@@ -9657,7 +9679,7 @@
       <c r="F7" s="8"/>
       <c r="G7" s="24"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="23"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -9666,7 +9688,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="24"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="23" t="s">
         <v>510</v>
       </c>
@@ -9677,7 +9699,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="24"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="25"/>
       <c r="B10" s="26" t="s">
         <v>534</v>
@@ -9690,7 +9712,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="24"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="25"/>
       <c r="B11" s="26" t="s">
         <v>535</v>
@@ -9703,7 +9725,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="24"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="25"/>
       <c r="B12" s="26" t="s">
         <v>536</v>
@@ -9716,7 +9738,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="24"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="25"/>
       <c r="B13" s="26" t="s">
         <v>537</v>
@@ -9729,7 +9751,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="24"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="23"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -9738,7 +9760,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="24"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="23" t="s">
         <v>511</v>
       </c>
@@ -9749,7 +9771,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="24"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="25"/>
       <c r="B16" s="26" t="s">
         <v>539</v>
@@ -9764,7 +9786,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="24"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="25"/>
       <c r="B17" s="26" t="s">
         <v>542</v>
@@ -9777,7 +9799,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="24"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="25"/>
       <c r="B18" s="26" t="s">
         <v>543</v>
@@ -9790,7 +9812,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="24"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="23"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -9799,7 +9821,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="24"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="23" t="s">
         <v>512</v>
       </c>
@@ -9810,7 +9832,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="24"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" s="25"/>
       <c r="B21" s="26" t="s">
         <v>544</v>
@@ -9823,7 +9845,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="24"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" s="25"/>
       <c r="B22" s="26" t="s">
         <v>545</v>
@@ -9836,7 +9858,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="24"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" s="25"/>
       <c r="B23" s="26" t="s">
         <v>546</v>
@@ -9849,7 +9871,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="24"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" s="23"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -9858,7 +9880,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="24"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="23"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -9867,7 +9889,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="24"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="23" t="s">
         <v>513</v>
       </c>
@@ -9878,7 +9900,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="24"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" s="25"/>
       <c r="B27" s="26" t="s">
         <v>547</v>
@@ -9891,7 +9913,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="24"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" s="25"/>
       <c r="B28" s="26" t="s">
         <v>549</v>
@@ -9904,7 +9926,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="24"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" s="25"/>
       <c r="B29" s="26" t="s">
         <v>550</v>
@@ -9917,7 +9939,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="24"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" s="23"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -9926,7 +9948,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="24"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" s="23" t="s">
         <v>552</v>
       </c>
@@ -9939,7 +9961,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="24"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" s="25"/>
       <c r="B32" s="26" t="s">
         <v>554</v>
@@ -9952,7 +9974,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="24"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" s="25"/>
       <c r="B33" s="26" t="s">
         <v>555</v>
@@ -9965,7 +9987,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="24"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" s="25"/>
       <c r="B34" s="26" t="s">
         <v>556</v>
@@ -9980,7 +10002,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="24"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" s="23"/>
       <c r="B35" s="26" t="s">
         <v>557</v>
@@ -9993,7 +10015,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="24"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" s="25"/>
       <c r="B36" s="26" t="s">
         <v>558</v>
@@ -10006,7 +10028,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="24"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" s="25"/>
       <c r="B37" s="26" t="s">
         <v>560</v>
@@ -10019,7 +10041,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="24"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" s="23" t="s">
         <v>514</v>
       </c>
@@ -10030,7 +10052,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="24"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" s="25"/>
       <c r="B39" s="26" t="s">
         <v>561</v>
@@ -10043,7 +10065,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="24"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" s="25"/>
       <c r="B40" s="26" t="s">
         <v>562</v>
@@ -10056,7 +10078,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="24"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" s="25"/>
       <c r="B41" s="26" t="s">
         <v>563</v>
@@ -10069,7 +10091,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="24"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" s="25"/>
       <c r="B42" s="26" t="s">
         <v>564</v>
@@ -10082,7 +10104,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="24"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" s="23"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -10091,7 +10113,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="24"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" s="23" t="s">
         <v>515</v>
       </c>
@@ -10102,7 +10124,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="24"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" s="25"/>
       <c r="B45" s="26" t="s">
         <v>565</v>
@@ -10115,7 +10137,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="24"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" s="25"/>
       <c r="B46" s="26" t="s">
         <v>566</v>
@@ -10128,7 +10150,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="24"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" s="25"/>
       <c r="B47" s="26" t="s">
         <v>567</v>
@@ -10141,7 +10163,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="24"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" s="25"/>
       <c r="B48" s="26" t="s">
         <v>568</v>
@@ -10154,7 +10176,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="24"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49" s="23"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -10163,7 +10185,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="24"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50" s="23" t="s">
         <v>516</v>
       </c>
@@ -10174,7 +10196,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="24"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" s="25"/>
       <c r="B51" s="26" t="s">
         <v>569</v>
@@ -10189,7 +10211,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="24"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A52" s="25"/>
       <c r="B52" s="26" t="s">
         <v>517</v>
@@ -10202,7 +10224,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="24"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53" s="23"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -10211,7 +10233,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="24"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54" s="23" t="s">
         <v>518</v>
       </c>
@@ -10222,7 +10244,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="24"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55" s="25"/>
       <c r="B55" s="26" t="s">
         <v>570</v>
@@ -10235,7 +10257,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="24"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A56" s="25"/>
       <c r="B56" s="26" t="s">
         <v>519</v>
@@ -10250,7 +10272,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="24"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A57" s="27"/>
       <c r="B57" s="28" t="s">
         <v>520</v>
@@ -10261,19 +10283,19 @@
       <c r="F57" s="29"/>
       <c r="G57" s="30"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B58" s="20"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B59" s="20"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A60" s="21"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A61" s="21"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A62" s="22"/>
     </row>
   </sheetData>
@@ -10291,16 +10313,16 @@
       <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="1" max="1" width="10.58203125" customWidth="1"/>
     <col min="2" max="2" width="9.75" customWidth="1"/>
-    <col min="3" max="3" width="60.375" customWidth="1"/>
+    <col min="3" max="3" width="60.33203125" customWidth="1"/>
     <col min="4" max="4" width="73.5" customWidth="1"/>
-    <col min="5" max="5" width="25.375" customWidth="1"/>
+    <col min="5" max="5" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="33" t="s">
         <v>579</v>
       </c>
@@ -10324,7 +10346,7 @@
       </c>
       <c r="H2" s="32"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B3" s="26">
         <v>1</v>
       </c>
@@ -10341,7 +10363,7 @@
       <c r="G3" s="8"/>
       <c r="H3" s="24"/>
     </row>
-    <row r="4" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="68" x14ac:dyDescent="0.45">
       <c r="B4">
         <v>2</v>
       </c>
@@ -10355,7 +10377,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5">
         <v>3</v>
       </c>
@@ -10369,7 +10391,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="51" x14ac:dyDescent="0.45">
       <c r="B6">
         <v>1</v>
       </c>
@@ -10383,7 +10405,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B7">
         <v>2</v>
       </c>
@@ -10394,7 +10416,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B8">
         <v>3</v>
       </c>
@@ -10408,7 +10430,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B9">
         <v>1</v>
       </c>
@@ -10419,7 +10441,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B10">
         <v>2</v>
       </c>
@@ -10430,7 +10452,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B11">
         <v>3</v>
       </c>
@@ -10444,7 +10466,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B12">
         <v>3</v>
       </c>
@@ -10455,7 +10477,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B13">
         <v>1</v>
       </c>
@@ -10469,7 +10491,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B14">
         <v>1</v>
       </c>
@@ -10480,7 +10502,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="165" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="165" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15">
         <v>2</v>
       </c>
@@ -10497,7 +10519,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="132" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="136" x14ac:dyDescent="0.45">
       <c r="B16">
         <v>2</v>
       </c>
@@ -10511,7 +10533,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="B17">
         <v>2</v>
       </c>
@@ -10525,7 +10547,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B18">
         <v>2</v>
       </c>
@@ -10539,7 +10561,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B19">
         <v>1</v>
       </c>
@@ -10550,7 +10572,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="51" x14ac:dyDescent="0.45">
       <c r="B20">
         <v>3</v>
       </c>
@@ -10564,7 +10586,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B21">
         <v>1</v>
       </c>
@@ -10575,7 +10597,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="B22">
         <v>2</v>
       </c>
@@ -10589,7 +10611,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="B23">
         <v>1</v>
       </c>
@@ -10603,7 +10625,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="119" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>670</v>
       </c>
@@ -10620,7 +10642,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>670</v>
       </c>
@@ -10637,7 +10659,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="85" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>670</v>
       </c>
@@ -10654,7 +10676,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="99" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="102" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>670</v>
       </c>
@@ -10671,7 +10693,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="85" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>670</v>
       </c>
@@ -10688,7 +10710,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="66" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="68" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>670</v>
       </c>
@@ -10705,7 +10727,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B30">
         <v>1</v>
       </c>
@@ -10719,7 +10741,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B31">
         <v>1</v>
       </c>
@@ -10733,7 +10755,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>670</v>
       </c>
@@ -10750,7 +10772,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B33">
         <v>1</v>
       </c>
@@ -10764,7 +10786,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>670</v>
       </c>
@@ -10781,7 +10803,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B35">
         <v>1</v>
       </c>
@@ -10795,7 +10817,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="148.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="153" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>670</v>
       </c>
@@ -10812,7 +10834,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>681</v>
       </c>
@@ -10829,7 +10851,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B38">
         <v>2</v>
       </c>
@@ -10840,7 +10862,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B39">
         <v>1</v>
       </c>
@@ -10851,7 +10873,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="85" x14ac:dyDescent="0.45">
       <c r="B40">
         <v>1</v>
       </c>
@@ -10865,7 +10887,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B41">
         <v>1</v>
       </c>
@@ -10876,7 +10898,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B42">
         <v>1</v>
       </c>
@@ -10888,7 +10910,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B43">
         <v>1</v>
       </c>
@@ -10899,7 +10921,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B44">
         <v>1</v>
       </c>
@@ -10910,7 +10932,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B45">
         <v>1</v>
       </c>
@@ -10924,7 +10946,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>713</v>
       </c>
@@ -10941,7 +10963,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B47">
         <v>1</v>
       </c>
@@ -10952,7 +10974,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B48">
         <v>1</v>
       </c>
@@ -10966,7 +10988,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B49">
         <v>1</v>
       </c>
@@ -10977,7 +10999,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B50">
         <v>1</v>
       </c>
@@ -10988,7 +11010,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B51">
         <v>1</v>
       </c>
@@ -11002,7 +11024,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" ht="85" x14ac:dyDescent="0.45">
       <c r="B52">
         <v>1</v>
       </c>
@@ -11016,7 +11038,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B53">
         <v>1</v>
       </c>
@@ -11030,7 +11052,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="B54">
         <v>1</v>
       </c>
@@ -11044,7 +11066,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B55">
         <v>1</v>
       </c>
@@ -11055,7 +11077,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="B56">
         <v>1</v>
       </c>
@@ -11069,7 +11091,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B57">
         <v>1</v>
       </c>
@@ -11083,7 +11105,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" ht="119" x14ac:dyDescent="0.45">
       <c r="B58">
         <v>1</v>
       </c>
@@ -11097,7 +11119,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="B59">
         <v>1</v>
       </c>
@@ -11111,7 +11133,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="66" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" ht="68" x14ac:dyDescent="0.45">
       <c r="B60">
         <v>1</v>
       </c>
@@ -11125,7 +11147,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="B61">
         <v>2</v>
       </c>
@@ -11139,7 +11161,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="165" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" ht="170" x14ac:dyDescent="0.45">
       <c r="B62">
         <v>2</v>
       </c>
@@ -11153,7 +11175,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>670</v>
       </c>
@@ -11170,7 +11192,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" ht="51" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>758</v>
       </c>
@@ -11187,7 +11209,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B65">
         <v>1</v>
       </c>
@@ -11198,7 +11220,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B66">
         <v>1</v>
       </c>
@@ -11209,7 +11231,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="67" spans="2:5" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:5" ht="85" x14ac:dyDescent="0.45">
       <c r="B67">
         <v>1</v>
       </c>
@@ -11223,7 +11245,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B68">
         <v>1</v>
       </c>
@@ -11234,7 +11256,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B69">
         <v>1</v>
       </c>
@@ -11245,7 +11267,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B70">
         <v>1</v>
       </c>
@@ -11256,7 +11278,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B71">
         <v>1</v>
       </c>
@@ -11267,7 +11289,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B72">
         <v>1</v>
       </c>
@@ -11278,7 +11300,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B73">
         <v>1</v>
       </c>
@@ -11289,7 +11311,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="74" spans="2:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:5" ht="34" x14ac:dyDescent="0.45">
       <c r="B74">
         <v>1</v>
       </c>
@@ -11303,7 +11325,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B75">
         <v>1</v>
       </c>
@@ -11317,7 +11339,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B76">
         <v>1</v>
       </c>
@@ -11328,7 +11350,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B77">
         <v>1</v>
       </c>
@@ -11339,7 +11361,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B78">
         <v>1</v>
       </c>
@@ -11353,7 +11375,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B79">
         <v>2</v>
       </c>
@@ -11364,7 +11386,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B80">
         <v>2</v>
       </c>
@@ -11385,17 +11407,17 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.875" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" customWidth="1"/>
     <col min="2" max="2" width="9.75" customWidth="1"/>
-    <col min="3" max="3" width="60.375" customWidth="1"/>
+    <col min="3" max="3" width="60.33203125" customWidth="1"/>
     <col min="4" max="4" width="70.75" customWidth="1"/>
-    <col min="5" max="5" width="25.375" customWidth="1"/>
-    <col min="8" max="8" width="39.375" customWidth="1"/>
+    <col min="5" max="5" width="25.33203125" customWidth="1"/>
+    <col min="8" max="8" width="39.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="33" t="s">
         <v>579</v>
       </c>
@@ -11421,7 +11443,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>669</v>
       </c>
@@ -11439,7 +11461,7 @@
       <c r="G3" s="8"/>
       <c r="H3" s="24"/>
     </row>
-    <row r="4" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="68" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>678</v>
       </c>
@@ -11453,7 +11475,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>687</v>
       </c>
@@ -11467,7 +11489,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="132" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="136" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>693</v>
       </c>
@@ -11481,117 +11503,117 @@
         <v>696</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="D7" s="4"/>
       <c r="E7" s="10"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="E8" s="10"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="E9" s="10"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="E10" s="10"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="E11" s="10"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="E12" s="10"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="E13" s="10"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="E14" s="10"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="E15" s="10"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="D16" s="34"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D17" s="4"/>
       <c r="E17" s="10"/>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D18" s="4"/>
       <c r="E18" s="10"/>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E19" s="10"/>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E20" s="10"/>
     </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D21" s="4"/>
       <c r="E21" s="10"/>
     </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E22" s="10"/>
     </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D23" s="4"/>
       <c r="E23" s="10"/>
     </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D24" s="4"/>
       <c r="E24" s="10"/>
     </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D25" s="4"/>
       <c r="E25" s="11"/>
     </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D26" s="4"/>
       <c r="E26" s="10"/>
     </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D27" s="4"/>
       <c r="E27" s="10"/>
     </row>
-    <row r="28" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D28" s="4"/>
       <c r="E28" s="11"/>
     </row>
-    <row r="29" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D29" s="4"/>
       <c r="E29" s="10"/>
     </row>
-    <row r="30" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D30" s="4"/>
       <c r="E30" s="11"/>
     </row>
-    <row r="31" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D31" s="4"/>
       <c r="E31" s="10"/>
     </row>
-    <row r="32" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D32" s="4"/>
       <c r="E32" s="11"/>
     </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D33" s="4"/>
       <c r="E33" s="10"/>
     </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D34" s="4"/>
       <c r="E34" s="11"/>
     </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D35" s="4"/>
       <c r="E35" s="10"/>
     </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D36" s="4"/>
       <c r="E36" s="11"/>
     </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D37" s="4"/>
       <c r="E37" s="10"/>
     </row>
@@ -11613,16 +11635,16 @@
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="1" max="1" width="10.58203125" customWidth="1"/>
     <col min="2" max="2" width="9.75" customWidth="1"/>
-    <col min="3" max="3" width="60.375" customWidth="1"/>
+    <col min="3" max="3" width="60.33203125" customWidth="1"/>
     <col min="4" max="4" width="73.5" customWidth="1"/>
-    <col min="5" max="5" width="25.375" customWidth="1"/>
+    <col min="5" max="5" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="33" t="s">
         <v>781</v>
       </c>
@@ -11646,7 +11668,7 @@
       </c>
       <c r="H2" s="32"/>
     </row>
-    <row r="3" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="34" x14ac:dyDescent="0.45">
       <c r="B3" s="26" t="s">
         <v>774</v>
       </c>
@@ -11663,7 +11685,7 @@
       <c r="G3" s="8"/>
       <c r="H3" s="24"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>801</v>
       </c>
@@ -11675,7 +11697,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="148.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="136" x14ac:dyDescent="0.45">
       <c r="B5" s="26" t="s">
         <v>774</v>
       </c>
@@ -11689,7 +11711,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B6" s="26" t="s">
         <v>774</v>
       </c>
@@ -11703,7 +11725,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B7" s="26" t="s">
         <v>774</v>
       </c>
@@ -11717,221 +11739,221 @@
         <v>844</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="E8" s="10"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="E9" s="10"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="E10" s="10"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="E11" s="10"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="E12" s="10"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="E13" s="10"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="E14" s="10"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="D15" s="34"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="D16" s="4"/>
       <c r="E16" s="10"/>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D17" s="4"/>
       <c r="E17" s="10"/>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E18" s="10"/>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E19" s="10"/>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D20" s="4"/>
       <c r="E20" s="10"/>
     </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E21" s="10"/>
     </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D22" s="4"/>
       <c r="E22" s="10"/>
     </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D23" s="4"/>
       <c r="E23" s="10"/>
     </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D24" s="4"/>
       <c r="E24" s="11"/>
     </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D25" s="4"/>
       <c r="E25" s="10"/>
     </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D26" s="4"/>
       <c r="E26" s="10"/>
     </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D27" s="4"/>
       <c r="E27" s="11"/>
     </row>
-    <row r="28" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D28" s="4"/>
       <c r="E28" s="10"/>
     </row>
-    <row r="29" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D29" s="4"/>
       <c r="E29" s="11"/>
     </row>
-    <row r="30" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D30" s="4"/>
       <c r="E30" s="10"/>
     </row>
-    <row r="31" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D31" s="4"/>
       <c r="E31" s="11"/>
     </row>
-    <row r="32" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D32" s="4"/>
       <c r="E32" s="10"/>
     </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D33" s="4"/>
       <c r="E33" s="11"/>
     </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D34" s="4"/>
       <c r="E34" s="10"/>
     </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D35" s="4"/>
       <c r="E35" s="11"/>
     </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D36" s="4"/>
       <c r="E36" s="10"/>
     </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D37" s="4"/>
       <c r="E37" s="11"/>
     </row>
-    <row r="38" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E38" s="10"/>
     </row>
-    <row r="39" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E39" s="11"/>
     </row>
-    <row r="40" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D40" s="4"/>
       <c r="E40" s="10"/>
     </row>
-    <row r="41" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E41" s="11"/>
     </row>
-    <row r="42" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D42" s="22"/>
       <c r="E42" s="10"/>
     </row>
-    <row r="43" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E43" s="11"/>
     </row>
-    <row r="44" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E44" s="10"/>
     </row>
-    <row r="45" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E45" s="11"/>
     </row>
-    <row r="46" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E46" s="10"/>
     </row>
-    <row r="47" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E47" s="11"/>
     </row>
-    <row r="48" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E48" s="10"/>
     </row>
-    <row r="49" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E49" s="10"/>
     </row>
-    <row r="50" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E50" s="10"/>
     </row>
-    <row r="51" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E51" s="10"/>
     </row>
-    <row r="52" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D52" s="4"/>
       <c r="E52" s="10"/>
     </row>
-    <row r="53" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E53" s="10"/>
     </row>
-    <row r="54" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D54" s="4"/>
       <c r="E54" s="10"/>
     </row>
-    <row r="55" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E55" s="10"/>
     </row>
-    <row r="56" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D56" s="4"/>
       <c r="E56" s="10"/>
     </row>
-    <row r="57" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E57" s="10"/>
     </row>
-    <row r="58" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D58" s="4"/>
       <c r="E58" s="10"/>
     </row>
-    <row r="59" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D59" s="4"/>
       <c r="E59" s="10"/>
     </row>
-    <row r="60" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D60" s="4"/>
       <c r="E60" s="10"/>
     </row>
-    <row r="61" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D61" s="4"/>
       <c r="E61" s="10"/>
     </row>
-    <row r="62" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D62" s="4"/>
       <c r="E62" s="10"/>
     </row>
-    <row r="63" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D63" s="4"/>
       <c r="E63" s="10"/>
     </row>
-    <row r="64" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D64" s="4"/>
       <c r="E64" s="10"/>
     </row>
-    <row r="65" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E65" s="10"/>
     </row>
-    <row r="66" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E66" s="10"/>
     </row>
-    <row r="67" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D67" s="4"/>
       <c r="E67" s="10"/>
     </row>
-    <row r="68" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E68" s="10"/>
     </row>
   </sheetData>
@@ -11955,16 +11977,16 @@
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="43.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.75" customWidth="1"/>
-    <col min="3" max="3" width="75.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="75.58203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="73.5" customWidth="1"/>
-    <col min="5" max="5" width="25.375" customWidth="1"/>
+    <col min="5" max="5" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="33" t="s">
         <v>873</v>
       </c>
@@ -11988,7 +12010,7 @@
       </c>
       <c r="H2" s="32"/>
     </row>
-    <row r="3" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="34" x14ac:dyDescent="0.45">
       <c r="B3" s="26" t="s">
         <v>774</v>
       </c>
@@ -12005,7 +12027,7 @@
       <c r="G3" s="8"/>
       <c r="H3" s="24"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B4" s="26" t="s">
         <v>798</v>
       </c>
@@ -12019,7 +12041,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" s="26" t="s">
         <v>774</v>
       </c>
@@ -12033,7 +12055,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B6" s="26" t="s">
         <v>774</v>
       </c>
@@ -12047,7 +12069,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B7" s="26" t="s">
         <v>774</v>
       </c>
@@ -12061,7 +12083,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.45">
       <c r="B8" s="26" t="s">
         <v>774</v>
       </c>
@@ -12075,7 +12097,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="34" x14ac:dyDescent="0.45">
       <c r="B9" s="26" t="s">
         <v>774</v>
       </c>
@@ -12089,7 +12111,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="68" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>879</v>
       </c>
@@ -12106,7 +12128,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="34" x14ac:dyDescent="0.45">
       <c r="A11" s="37" t="s">
         <v>878</v>
       </c>
@@ -12124,7 +12146,7 @@
       </c>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="34" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>877</v>
       </c>
@@ -12141,7 +12163,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="37" t="s">
         <v>876</v>
       </c>
@@ -12158,7 +12180,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>875</v>
       </c>
@@ -12172,7 +12194,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="85" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>883</v>
       </c>
@@ -12189,14 +12211,14 @@
         <v>854</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B16" s="26"/>
       <c r="C16" s="22"/>
       <c r="D16" s="34"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>874</v>
       </c>
@@ -12211,7 +12233,7 @@
       </c>
       <c r="E18" s="10"/>
     </row>
-    <row r="19" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>880</v>
       </c>
@@ -12228,7 +12250,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="85" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>885</v>
       </c>
@@ -12243,7 +12265,7 @@
       </c>
       <c r="E20" s="10"/>
     </row>
-    <row r="21" spans="1:5" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="85" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>890</v>
       </c>
@@ -12258,7 +12280,7 @@
       </c>
       <c r="E21" s="10"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>892</v>
       </c>
@@ -12273,7 +12295,7 @@
       </c>
       <c r="E22" s="10"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>897</v>
       </c>
@@ -12288,7 +12310,7 @@
       </c>
       <c r="E23" s="10"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B24" s="26" t="s">
         <v>774</v>
       </c>
@@ -12298,7 +12320,7 @@
       <c r="D24" s="4"/>
       <c r="E24" s="10"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B25" s="36" t="s">
         <v>852</v>
       </c>
@@ -12308,15 +12330,15 @@
       <c r="D25" s="4"/>
       <c r="E25" s="11"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D26" s="4"/>
       <c r="E26" s="10"/>
     </row>
-    <row r="27" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D27" s="43"/>
       <c r="E27" s="44"/>
     </row>
-    <row r="28" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>898</v>
       </c>
@@ -12331,7 +12353,7 @@
       </c>
       <c r="E28" s="11"/>
     </row>
-    <row r="29" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>902</v>
       </c>
@@ -12348,7 +12370,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B30" s="26" t="s">
         <v>774</v>
       </c>
@@ -12358,142 +12380,142 @@
       <c r="D30" s="4"/>
       <c r="E30" s="11"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D31" s="4"/>
       <c r="E31" s="10"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D32" s="4"/>
       <c r="E32" s="11"/>
     </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D33" s="4"/>
       <c r="E33" s="10"/>
     </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D34" s="4"/>
       <c r="E34" s="11"/>
     </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D35" s="4"/>
       <c r="E35" s="10"/>
     </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D36" s="4"/>
       <c r="E36" s="11"/>
     </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D37" s="4"/>
       <c r="E37" s="10"/>
     </row>
-    <row r="38" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D38" s="4"/>
       <c r="E38" s="11"/>
     </row>
-    <row r="39" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E39" s="10"/>
     </row>
-    <row r="40" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E40" s="11"/>
     </row>
-    <row r="41" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D41" s="4"/>
       <c r="E41" s="10"/>
     </row>
-    <row r="42" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E42" s="11"/>
     </row>
-    <row r="43" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D43" s="22"/>
       <c r="E43" s="10"/>
     </row>
-    <row r="44" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E44" s="11"/>
     </row>
-    <row r="45" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E45" s="10"/>
     </row>
-    <row r="46" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E46" s="11"/>
     </row>
-    <row r="47" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E47" s="10"/>
     </row>
-    <row r="48" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E48" s="11"/>
     </row>
-    <row r="49" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E49" s="10"/>
     </row>
-    <row r="50" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E50" s="10"/>
     </row>
-    <row r="51" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E51" s="10"/>
     </row>
-    <row r="52" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E52" s="10"/>
     </row>
-    <row r="53" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D53" s="4"/>
       <c r="E53" s="10"/>
     </row>
-    <row r="54" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E54" s="10"/>
     </row>
-    <row r="55" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D55" s="4"/>
       <c r="E55" s="10"/>
     </row>
-    <row r="56" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E56" s="10"/>
     </row>
-    <row r="57" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D57" s="4"/>
       <c r="E57" s="10"/>
     </row>
-    <row r="58" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E58" s="10"/>
     </row>
-    <row r="59" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D59" s="4"/>
       <c r="E59" s="10"/>
     </row>
-    <row r="60" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D60" s="4"/>
       <c r="E60" s="10"/>
     </row>
-    <row r="61" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D61" s="4"/>
       <c r="E61" s="10"/>
     </row>
-    <row r="62" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D62" s="4"/>
       <c r="E62" s="10"/>
     </row>
-    <row r="63" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D63" s="4"/>
       <c r="E63" s="10"/>
     </row>
-    <row r="64" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D64" s="4"/>
       <c r="E64" s="10"/>
     </row>
-    <row r="65" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D65" s="4"/>
       <c r="E65" s="10"/>
     </row>
-    <row r="66" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E66" s="10"/>
     </row>
-    <row r="67" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E67" s="10"/>
     </row>
-    <row r="68" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D68" s="4"/>
       <c r="E68" s="10"/>
     </row>
-    <row r="69" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E69" s="10"/>
     </row>
   </sheetData>
@@ -12527,20 +12549,20 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:C20"/>
+  <dimension ref="A3:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="51.625" customWidth="1"/>
+    <col min="1" max="1" width="51.58203125" customWidth="1"/>
     <col min="2" max="2" width="59.25" customWidth="1"/>
     <col min="3" max="3" width="43.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" ht="165" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="170" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>907</v>
       </c>
@@ -12551,12 +12573,12 @@
         <v>908</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="45" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>909</v>
       </c>
@@ -12564,7 +12586,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>912</v>
       </c>
@@ -12572,13 +12594,13 @@
         <v>913</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="42" t="s">
         <v>920</v>
       </c>
       <c r="B9" s="42"/>
     </row>
-    <row r="10" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="68" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
         <v>917</v>
       </c>
@@ -12586,7 +12608,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="51" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>914</v>
       </c>
@@ -12594,7 +12616,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>915</v>
       </c>
@@ -12602,7 +12624,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>918</v>
       </c>
@@ -12610,7 +12632,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="68" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>922</v>
       </c>
@@ -12618,7 +12640,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="34" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>924</v>
       </c>
@@ -12626,7 +12648,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>927</v>
       </c>
@@ -12634,12 +12656,23 @@
         <v>926</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="132" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="136" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>928</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>930</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22" s="45"/>
+    </row>
+    <row r="23" spans="1:2" ht="51" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>931</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>932</v>
       </c>
     </row>
   </sheetData>
@@ -12657,16 +12690,16 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="1" max="1" width="10.58203125" customWidth="1"/>
     <col min="2" max="2" width="9.75" customWidth="1"/>
-    <col min="3" max="3" width="60.375" customWidth="1"/>
-    <col min="4" max="4" width="91.375" customWidth="1"/>
-    <col min="5" max="5" width="25.375" customWidth="1"/>
+    <col min="3" max="3" width="60.33203125" customWidth="1"/>
+    <col min="4" max="4" width="91.33203125" customWidth="1"/>
+    <col min="5" max="5" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="33" t="s">
         <v>579</v>
       </c>
@@ -12690,7 +12723,7 @@
       </c>
       <c r="H1" s="32"/>
     </row>
-    <row r="2" spans="1:8" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="119" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>831</v>
       </c>
@@ -12706,7 +12739,7 @@
       <c r="G2" s="8"/>
       <c r="H2" s="24"/>
     </row>
-    <row r="3" spans="1:8" ht="181.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="187" x14ac:dyDescent="0.45">
       <c r="B3">
         <v>2</v>
       </c>
@@ -12718,7 +12751,7 @@
       </c>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="181.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="187" x14ac:dyDescent="0.45">
       <c r="B4" s="26">
         <v>2</v>
       </c>
@@ -12730,7 +12763,7 @@
       </c>
       <c r="E4" s="10"/>
     </row>
-    <row r="5" spans="1:8" ht="313.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="323" x14ac:dyDescent="0.45">
       <c r="B5">
         <v>2</v>
       </c>
@@ -12742,19 +12775,19 @@
       </c>
       <c r="E5" s="10"/>
     </row>
-    <row r="6" spans="1:8" ht="132" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="136" x14ac:dyDescent="0.45">
       <c r="C6" s="8"/>
       <c r="D6" s="4" t="s">
         <v>836</v>
       </c>
       <c r="E6" s="10"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="C7" s="10"/>
       <c r="D7" s="4"/>
       <c r="E7" s="10"/>
     </row>
-    <row r="8" spans="1:8" ht="313.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="323" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
         <v>833</v>
       </c>
@@ -12769,219 +12802,219 @@
       </c>
       <c r="E8" s="10"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="C9" s="22"/>
       <c r="E9" s="10"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="E10" s="10"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="E11" s="10"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="E12" s="10"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="E13" s="10"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="E14" s="10"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="D15" s="34"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="D16" s="4"/>
       <c r="E16" s="10"/>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D17" s="4"/>
       <c r="E17" s="10"/>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E18" s="10"/>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E19" s="10"/>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D20" s="4"/>
       <c r="E20" s="10"/>
     </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E21" s="10"/>
     </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D22" s="4"/>
       <c r="E22" s="10"/>
     </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D23" s="4"/>
       <c r="E23" s="10"/>
     </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D24" s="4"/>
       <c r="E24" s="11"/>
     </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D25" s="4"/>
       <c r="E25" s="10"/>
     </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D26" s="4"/>
       <c r="E26" s="10"/>
     </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D27" s="4"/>
       <c r="E27" s="11"/>
     </row>
-    <row r="28" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D28" s="4"/>
       <c r="E28" s="10"/>
     </row>
-    <row r="29" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D29" s="4"/>
       <c r="E29" s="11"/>
     </row>
-    <row r="30" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D30" s="4"/>
       <c r="E30" s="10"/>
     </row>
-    <row r="31" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D31" s="4"/>
       <c r="E31" s="11"/>
     </row>
-    <row r="32" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D32" s="4"/>
       <c r="E32" s="10"/>
     </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D33" s="4"/>
       <c r="E33" s="11"/>
     </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D34" s="4"/>
       <c r="E34" s="10"/>
     </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D35" s="4"/>
       <c r="E35" s="11"/>
     </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D36" s="4"/>
       <c r="E36" s="10"/>
     </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D37" s="4"/>
       <c r="E37" s="11"/>
     </row>
-    <row r="38" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E38" s="10"/>
     </row>
-    <row r="39" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E39" s="11"/>
     </row>
-    <row r="40" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D40" s="4"/>
       <c r="E40" s="10"/>
     </row>
-    <row r="41" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E41" s="11"/>
     </row>
-    <row r="42" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D42" s="22"/>
       <c r="E42" s="10"/>
     </row>
-    <row r="43" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E43" s="11"/>
     </row>
-    <row r="44" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E44" s="10"/>
     </row>
-    <row r="45" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E45" s="11"/>
     </row>
-    <row r="46" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E46" s="10"/>
     </row>
-    <row r="47" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E47" s="11"/>
     </row>
-    <row r="48" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E48" s="10"/>
     </row>
-    <row r="49" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E49" s="10"/>
     </row>
-    <row r="50" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E50" s="10"/>
     </row>
-    <row r="51" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E51" s="10"/>
     </row>
-    <row r="52" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D52" s="4"/>
       <c r="E52" s="10"/>
     </row>
-    <row r="53" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E53" s="10"/>
     </row>
-    <row r="54" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D54" s="4"/>
       <c r="E54" s="10"/>
     </row>
-    <row r="55" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E55" s="10"/>
     </row>
-    <row r="56" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D56" s="4"/>
       <c r="E56" s="10"/>
     </row>
-    <row r="57" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E57" s="10"/>
     </row>
-    <row r="58" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D58" s="4"/>
       <c r="E58" s="10"/>
     </row>
-    <row r="59" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D59" s="4"/>
       <c r="E59" s="10"/>
     </row>
-    <row r="60" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D60" s="4"/>
       <c r="E60" s="10"/>
     </row>
-    <row r="61" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D61" s="4"/>
       <c r="E61" s="10"/>
     </row>
-    <row r="62" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D62" s="4"/>
       <c r="E62" s="10"/>
     </row>
-    <row r="63" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D63" s="4"/>
       <c r="E63" s="10"/>
     </row>
-    <row r="64" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D64" s="4"/>
       <c r="E64" s="10"/>
     </row>
-    <row r="65" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E65" s="10"/>
     </row>
-    <row r="66" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E66" s="10"/>
     </row>
-    <row r="67" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D67" s="4"/>
       <c r="E67" s="10"/>
     </row>
-    <row r="68" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E68" s="10"/>
     </row>
   </sheetData>

--- a/src/main/resources/알고리즘 문제 목록.xlsx
+++ b/src/main/resources/알고리즘 문제 목록.xlsx
@@ -4960,8 +4960,11 @@
   </si>
   <si>
     <t xml:space="preserve">
-1. 특정 조건을 기준으로 정렬한 다음, 
-   O(n)으로 처리하는 알고리즘 방식</t>
+1. 특정 하나의 조건을 기준으로 정렬한 다음, O(n)으로 처리하는 알고리즘 방식
+   - max를 갱신하면서 O(n)으로 처리한다.
+   - 선택한 조건이 같은값이 있는경우 다른 조건에 대한 정렬조건을 추가해야하는 경우도 있다
+----------------------------------------------
+가장 많이 나오는 그리디 유형</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -12552,7 +12555,7 @@
   <dimension ref="A3:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -12667,7 +12670,7 @@
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="45"/>
     </row>
-    <row r="23" spans="1:2" ht="51" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" ht="136" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>931</v>
       </c>

--- a/src/main/resources/알고리즘 문제 목록.xlsx
+++ b/src/main/resources/알고리즘 문제 목록.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="933">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="938">
   <si>
     <t>수학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4964,7 +4964,30 @@
    - max를 갱신하면서 O(n)으로 처리한다.
    - 선택한 조건이 같은값이 있는경우 다른 조건에 대한 정렬조건을 추가해야하는 경우도 있다
 ----------------------------------------------
-가장 많이 나오는 그리디 유형</t>
+가장 많이 나오는 그리디 유형
+2. 다른 배열을 flatterning해서 처리해야하는 경우
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Greedy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미팅룸 진입 - 오랜만에 그리디를 풀어서 개념을 잊고 있었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Greedy 팁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결혼식 - flatterning해야하는 문제일거라 생각 못했다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>겹치면 안되는 경우는 마감시간 기준으로만 가능한데, 
+시간이 겹쳐야하는 경우는 시작시간을 봐야한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5066,7 +5089,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5088,6 +5111,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5191,7 +5220,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5327,7 +5356,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -12552,10 +12587,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:C23"/>
+  <dimension ref="A3:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -12580,6 +12615,7 @@
       <c r="A6" s="45" t="s">
         <v>911</v>
       </c>
+      <c r="B6" s="46"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
@@ -12651,7 +12687,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>927</v>
       </c>
@@ -12659,7 +12695,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="136" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" ht="136" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>928</v>
       </c>
@@ -12667,15 +12703,44 @@
         <v>930</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A22" s="45"/>
-    </row>
-    <row r="23" spans="1:2" ht="136" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21" s="45" t="s">
+        <v>911</v>
+      </c>
+      <c r="B21" s="46"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A22" s="47" t="s">
+        <v>933</v>
+      </c>
+      <c r="B22" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A23" s="47"/>
+      <c r="B23" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A24" s="47"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A25" s="42" t="s">
+        <v>935</v>
+      </c>
+      <c r="B25" s="42"/>
+    </row>
+    <row r="26" spans="1:3" ht="204" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
         <v>931</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B26" s="4" t="s">
         <v>932</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>937</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/알고리즘 문제 목록.xlsx
+++ b/src/main/resources/알고리즘 문제 목록.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="938">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="941">
   <si>
     <t>수학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4988,6 +4988,39 @@
   <si>
     <t>겹치면 안되는 경우는 마감시간 기준으로만 가능한데, 
 시간이 겹쳐야하는 경우는 시작시간을 봐야한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BFS로 풀어보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다익스트라를 처음 풀때 dfs로 풀었는데, BFS로 푸는게 더 쉬운것 같다.
+PQ를 이용해 가중치가 작은 것으로 정렬하여 
+BFS를 처리하면 
+간선 : n
+Priority Queue : logn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">다익스트라 알고리즘
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이전 정점의 정보를 바탕으로 최단거리를 구하는 알고리즘
+이전 정점의 값을 기준으로 계산하기에 
+BFS와 PQ를 이용해 그리디로 풀 수 있고
+DP방식으로도 풀 수 있다.</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5220,7 +5253,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5364,6 +5397,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -12587,10 +12623,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:C26"/>
+  <dimension ref="A3:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -12741,6 +12777,17 @@
       </c>
       <c r="C26" s="4" t="s">
         <v>937</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="85" x14ac:dyDescent="0.45">
+      <c r="A28" s="48" t="s">
+        <v>940</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>939</v>
+      </c>
+      <c r="C28" t="s">
+        <v>938</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/알고리즘 문제 목록.xlsx
+++ b/src/main/resources/알고리즘 문제 목록.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="941">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="943">
   <si>
     <t>수학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5020,6 +5020,40 @@
 이전 정점의 값을 기준으로 계산하기에 
 BFS와 PQ를 이용해 그리디로 풀 수 있고
 DP방식으로도 풀 수 있다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">친구찾기
+서로소를 확인할때 사용한다.
+최소 스패닝 트리
+그래프를 트리로 변경할때 사용한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">UNION &amp; FIND
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dfs의 한 패턴</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -12623,10 +12657,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:C28"/>
+  <dimension ref="A3:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -12788,6 +12822,14 @@
       </c>
       <c r="C28" t="s">
         <v>938</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="85" x14ac:dyDescent="0.45">
+      <c r="A30" s="13" t="s">
+        <v>942</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>941</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/알고리즘 문제 목록.xlsx
+++ b/src/main/resources/알고리즘 문제 목록.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\algorithm\Leetcode\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SeongJin\git\Leetcode\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14390" windowHeight="9980" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="9975" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="BASIC" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="943">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="948">
   <si>
     <t>수학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5057,12 +5057,100 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>LIS(LongestIncreasingSubsequence)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>냅색 알고리즘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 조건을 기준으로 정렬을 한다.
+for(int i=0; i&lt;n;i++){
+  for(int j=i-1; j&gt;=0; j--){
+    if(~~){
+      d[i] = func(d[j]);
+    }
+  }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DP 알고리즘 유형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">특정 조건을 기준으로 정렬을 한다.
+무게만큼의 index차를 뺀다
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>중복을 허용하는 경우 증가하는 인덱스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+for(int i=0; i&lt;n;i++){
+  for(int j=a[i]; j&lt;=m; j++){
+    d[i] = Math.min(d[i], d[j-a[i]]+1);
+  }
+}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>중복을 허용하지 않는 경우 감소하는 인덱스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+for(int i=0; i&lt;n;i++){
+  for(int j=m; j&gt;=a[i]; j--){
+    d[i] = Math.max(d[i], d[j-a[i]]+1);
+  }
+}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5150,6 +5238,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -5287,7 +5384,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5434,6 +5531,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5995,27 +6095,27 @@
       <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="3.58203125" customWidth="1"/>
-    <col min="3" max="3" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.58203125" customWidth="1"/>
-    <col min="6" max="6" width="12.08203125" customWidth="1"/>
+    <col min="1" max="2" width="3.625" customWidth="1"/>
+    <col min="3" max="3" width="31.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.625" customWidth="1"/>
+    <col min="6" max="6" width="12.125" customWidth="1"/>
     <col min="7" max="7" width="39" customWidth="1"/>
     <col min="8" max="8" width="57.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="46.25" customWidth="1"/>
-    <col min="11" max="11" width="47.58203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="40.08203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="47.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="40.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="3:12" x14ac:dyDescent="0.3">
       <c r="I3" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
@@ -6047,7 +6147,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>172</v>
       </c>
@@ -6071,7 +6171,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E6" s="1" t="s">
         <v>5</v>
       </c>
@@ -6089,7 +6189,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
@@ -6107,7 +6207,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E8" s="1" t="s">
         <v>11</v>
       </c>
@@ -6128,7 +6228,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E9" s="1" t="s">
         <v>13</v>
       </c>
@@ -6149,7 +6249,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E10" s="1" t="s">
         <v>15</v>
       </c>
@@ -6170,7 +6270,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="11" spans="3:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="3:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E11" s="1" t="s">
         <v>16</v>
       </c>
@@ -6188,7 +6288,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="12" spans="3:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="3:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D12" s="5" t="s">
         <v>18</v>
       </c>
@@ -6216,7 +6316,7 @@
       </c>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E13" s="1" t="s">
         <v>21</v>
       </c>
@@ -6234,7 +6334,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="14" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E14" s="2"/>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
@@ -6250,7 +6350,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="15" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E15" s="2"/>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
@@ -6266,7 +6366,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="16" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E16" s="1" t="s">
         <v>25</v>
       </c>
@@ -6287,7 +6387,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="17" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E17" s="2"/>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
@@ -6303,7 +6403,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="18" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E18" s="2"/>
       <c r="H18" t="s">
         <v>28</v>
@@ -6315,7 +6415,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="19" spans="4:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E19" s="1" t="s">
         <v>29</v>
       </c>
@@ -6333,7 +6433,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="20" spans="4:12" ht="68.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="4:12" ht="66.75" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D20" s="5" t="s">
         <v>202</v>
       </c>
@@ -6359,7 +6459,7 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E21" s="1" t="s">
         <v>33</v>
       </c>
@@ -6377,7 +6477,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="22" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E22" s="1" t="s">
         <v>35</v>
       </c>
@@ -6395,7 +6495,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="23" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E23" s="1" t="s">
         <v>37</v>
       </c>
@@ -6413,7 +6513,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="24" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E24" s="1" t="s">
         <v>39</v>
       </c>
@@ -6434,7 +6534,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="25" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E25" s="2"/>
       <c r="G25" t="str">
         <f t="shared" si="1"/>
@@ -6450,7 +6550,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="26" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E26" s="1" t="s">
         <v>42</v>
       </c>
@@ -6471,7 +6571,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="27" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E27" s="1" t="s">
         <v>44</v>
       </c>
@@ -6492,7 +6592,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="28" spans="4:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="4:12" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E28" s="1" t="s">
         <v>47</v>
       </c>
@@ -6513,7 +6613,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="29" spans="4:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="4:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D29" s="5" t="s">
         <v>199</v>
       </c>
@@ -6539,7 +6639,7 @@
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
     </row>
-    <row r="30" spans="4:12" ht="68" x14ac:dyDescent="0.45">
+    <row r="30" spans="4:12" ht="66" x14ac:dyDescent="0.3">
       <c r="D30" s="8"/>
       <c r="E30" s="9" t="s">
         <v>204</v>
@@ -6563,7 +6663,7 @@
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
     </row>
-    <row r="31" spans="4:12" ht="119" x14ac:dyDescent="0.45">
+    <row r="31" spans="4:12" ht="115.5" x14ac:dyDescent="0.3">
       <c r="E31" s="1" t="s">
         <v>42</v>
       </c>
@@ -6587,7 +6687,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="32" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="32" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E32" s="1" t="s">
         <v>44</v>
       </c>
@@ -6608,7 +6708,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="33" spans="4:12" ht="34" x14ac:dyDescent="0.45">
+    <row r="33" spans="4:12" ht="33" x14ac:dyDescent="0.3">
       <c r="E33" s="1" t="s">
         <v>51</v>
       </c>
@@ -6629,7 +6729,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="34" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="34" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E34" s="1" t="s">
         <v>48</v>
       </c>
@@ -6647,7 +6747,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="35" spans="4:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="4:12" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E35" s="1" t="s">
         <v>49</v>
       </c>
@@ -6668,7 +6768,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="36" spans="4:12" ht="34.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="4:12" ht="33.75" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D36" s="5" t="s">
         <v>201</v>
       </c>
@@ -6694,7 +6794,7 @@
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
     </row>
-    <row r="37" spans="4:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E37" s="1" t="s">
         <v>48</v>
       </c>
@@ -6715,7 +6815,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="38" spans="4:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="4:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D38" s="5" t="s">
         <v>56</v>
       </c>
@@ -6737,7 +6837,7 @@
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
     </row>
-    <row r="39" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="39" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E39" s="1" t="s">
         <v>61</v>
       </c>
@@ -6752,7 +6852,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="40" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E40" s="2"/>
       <c r="G40" t="str">
         <f t="shared" si="0"/>
@@ -6762,7 +6862,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="41" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E41" s="1" t="s">
         <v>62</v>
       </c>
@@ -6777,7 +6877,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="42" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E42" s="1" t="s">
         <v>64</v>
       </c>
@@ -6792,7 +6892,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="43" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E43" s="2"/>
       <c r="G43" t="str">
         <f t="shared" si="0"/>
@@ -6802,7 +6902,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="44" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E44" s="1" t="s">
         <v>67</v>
       </c>
@@ -6817,7 +6917,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="45" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E45" s="1" t="s">
         <v>69</v>
       </c>
@@ -6832,7 +6932,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="46" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E46" s="2"/>
       <c r="G46" t="str">
         <f t="shared" si="0"/>
@@ -6842,7 +6942,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="47" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E47" s="1" t="s">
         <v>73</v>
       </c>
@@ -6857,7 +6957,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="48" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E48" s="1" t="s">
         <v>74</v>
       </c>
@@ -6872,7 +6972,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="49" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E49" s="2"/>
       <c r="G49" t="str">
         <f t="shared" si="0"/>
@@ -6882,7 +6982,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="50" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E50" s="1" t="s">
         <v>77</v>
       </c>
@@ -6897,7 +6997,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="51" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="51" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E51" s="2"/>
       <c r="G51" t="str">
         <f t="shared" si="0"/>
@@ -6907,7 +7007,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="52" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E52" s="1" t="s">
         <v>80</v>
       </c>
@@ -6922,7 +7022,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="53" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E53" s="2"/>
       <c r="G53" t="str">
         <f t="shared" si="0"/>
@@ -6932,7 +7032,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="54" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="54" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E54" s="1" t="s">
         <v>83</v>
       </c>
@@ -6947,7 +7047,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="55" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="55" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E55" s="2"/>
       <c r="G55" t="str">
         <f t="shared" si="0"/>
@@ -6957,7 +7057,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="56" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E56" s="1" t="s">
         <v>86</v>
       </c>
@@ -6972,7 +7072,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="57" spans="4:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="57" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E57" s="1"/>
       <c r="G57" t="str">
         <f t="shared" si="0"/>
@@ -6982,7 +7082,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="4:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="4:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D58" s="5" t="s">
         <v>89</v>
       </c>
@@ -7008,7 +7108,7 @@
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
     </row>
-    <row r="59" spans="4:12" ht="51" x14ac:dyDescent="0.45">
+    <row r="59" spans="4:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="E59" s="1" t="s">
         <v>92</v>
       </c>
@@ -7032,7 +7132,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="60" spans="4:12" ht="51" x14ac:dyDescent="0.45">
+    <row r="60" spans="4:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="E60" t="s">
         <v>221</v>
       </c>
@@ -7046,7 +7146,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="61" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="61" spans="4:12" x14ac:dyDescent="0.3">
       <c r="H61" t="s">
         <v>95</v>
       </c>
@@ -7057,7 +7157,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="62" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="62" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E62" s="1" t="s">
         <v>96</v>
       </c>
@@ -7078,7 +7178,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="63" spans="4:12" ht="34" x14ac:dyDescent="0.45">
+    <row r="63" spans="4:12" ht="33" x14ac:dyDescent="0.3">
       <c r="E63" s="1" t="s">
         <v>98</v>
       </c>
@@ -7099,7 +7199,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="64" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="64" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E64" s="1" t="s">
         <v>100</v>
       </c>
@@ -7117,7 +7217,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="65" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="65" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E65" t="s">
         <v>103</v>
       </c>
@@ -7132,7 +7232,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="66" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="66" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E66" s="1" t="s">
         <v>104</v>
       </c>
@@ -7150,7 +7250,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="67" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="67" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E67" s="1" t="s">
         <v>106</v>
       </c>
@@ -7168,7 +7268,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="68" spans="5:11" ht="51" x14ac:dyDescent="0.45">
+    <row r="68" spans="5:11" ht="66" x14ac:dyDescent="0.3">
       <c r="E68" s="1" t="s">
         <v>108</v>
       </c>
@@ -7189,7 +7289,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="69" spans="5:11" ht="51" x14ac:dyDescent="0.45">
+    <row r="69" spans="5:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="E69" s="1" t="s">
         <v>110</v>
       </c>
@@ -7210,7 +7310,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="70" spans="5:11" ht="85" x14ac:dyDescent="0.45">
+    <row r="70" spans="5:11" ht="82.5" x14ac:dyDescent="0.3">
       <c r="E70" s="1" t="s">
         <v>112</v>
       </c>
@@ -7231,7 +7331,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="71" spans="5:11" ht="34" x14ac:dyDescent="0.45">
+    <row r="71" spans="5:11" ht="33" x14ac:dyDescent="0.3">
       <c r="E71" s="1" t="s">
         <v>114</v>
       </c>
@@ -7255,7 +7355,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="72" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="72" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E72" t="s">
         <v>117</v>
       </c>
@@ -7273,7 +7373,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="73" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="73" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E73" s="1" t="s">
         <v>118</v>
       </c>
@@ -7291,7 +7391,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="74" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="74" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E74" t="s">
         <v>121</v>
       </c>
@@ -7302,7 +7402,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="75" spans="5:11" ht="51" x14ac:dyDescent="0.45">
+    <row r="75" spans="5:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="E75" s="1" t="s">
         <v>122</v>
       </c>
@@ -7326,7 +7426,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="76" spans="5:11" ht="85" x14ac:dyDescent="0.45">
+    <row r="76" spans="5:11" ht="82.5" x14ac:dyDescent="0.3">
       <c r="E76" s="1" t="s">
         <v>124</v>
       </c>
@@ -7350,25 +7450,25 @@
         <v>235</v>
       </c>
     </row>
-    <row r="183" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="183" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E183" t="str">
         <f>IF(D183="","",CONCATENATE("https://www.acmicpc.net/problem/",D183))</f>
         <v/>
       </c>
     </row>
-    <row r="184" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="184" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E184" t="str">
         <f>IF(D184="","",CONCATENATE("https://www.acmicpc.net/problem/",D184))</f>
         <v/>
       </c>
     </row>
-    <row r="185" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="185" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E185" t="str">
         <f>IF(D185="","",CONCATENATE("https://www.acmicpc.net/problem/",D185))</f>
         <v/>
       </c>
     </row>
-    <row r="186" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="186" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E186" t="str">
         <f>IF(D186="","",CONCATENATE("https://www.acmicpc.net/problem/",D186))</f>
         <v/>
@@ -7389,16 +7489,16 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.83203125" customWidth="1"/>
+    <col min="1" max="1" width="17.875" customWidth="1"/>
     <col min="2" max="2" width="9.75" customWidth="1"/>
     <col min="3" max="3" width="82.75" customWidth="1"/>
-    <col min="4" max="4" width="91.33203125" customWidth="1"/>
-    <col min="5" max="5" width="25.33203125" customWidth="1"/>
+    <col min="4" max="4" width="91.375" customWidth="1"/>
+    <col min="5" max="5" width="25.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="33" t="s">
         <v>579</v>
       </c>
@@ -7422,7 +7522,7 @@
       </c>
       <c r="H1" s="32"/>
     </row>
-    <row r="2" spans="1:8" ht="170" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" ht="165" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>869</v>
       </c>
@@ -7438,7 +7538,7 @@
       <c r="G2" s="8"/>
       <c r="H2" s="24"/>
     </row>
-    <row r="3" spans="1:8" ht="409.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>868</v>
       </c>
@@ -7449,18 +7549,18 @@
       <c r="D3" s="4"/>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="409.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="26"/>
       <c r="C4" s="8"/>
       <c r="D4" s="4"/>
       <c r="E4" s="10"/>
     </row>
-    <row r="5" spans="1:8" ht="303.64999999999998" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" ht="303.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="10"/>
       <c r="D5" s="4"/>
       <c r="E5" s="10"/>
     </row>
-    <row r="6" spans="1:8" ht="378" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" ht="378" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>870</v>
       </c>
@@ -7471,230 +7571,230 @@
       <c r="D6" s="4"/>
       <c r="E6" s="10"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C7" s="10"/>
       <c r="D7" s="4"/>
       <c r="E7" s="10"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="C8" s="35"/>
       <c r="D8" s="4"/>
       <c r="E8" s="10"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C9" s="22"/>
       <c r="E9" s="10"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E10" s="10"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E11" s="10"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E12" s="10"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E13" s="10"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E14" s="10"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D15" s="34"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D16" s="4"/>
       <c r="E16" s="10"/>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D17" s="4"/>
       <c r="E17" s="10"/>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E18" s="10"/>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E19" s="10"/>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D20" s="4"/>
       <c r="E20" s="10"/>
     </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E21" s="10"/>
     </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D22" s="4"/>
       <c r="E22" s="10"/>
     </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D23" s="4"/>
       <c r="E23" s="10"/>
     </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D24" s="4"/>
       <c r="E24" s="11"/>
     </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D25" s="4"/>
       <c r="E25" s="10"/>
     </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D26" s="4"/>
       <c r="E26" s="10"/>
     </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D27" s="4"/>
       <c r="E27" s="11"/>
     </row>
-    <row r="28" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D28" s="4"/>
       <c r="E28" s="10"/>
     </row>
-    <row r="29" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D29" s="4"/>
       <c r="E29" s="11"/>
     </row>
-    <row r="30" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D30" s="4"/>
       <c r="E30" s="10"/>
     </row>
-    <row r="31" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D31" s="4"/>
       <c r="E31" s="11"/>
     </row>
-    <row r="32" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D32" s="4"/>
       <c r="E32" s="10"/>
     </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D33" s="4"/>
       <c r="E33" s="11"/>
     </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D34" s="4"/>
       <c r="E34" s="10"/>
     </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D35" s="4"/>
       <c r="E35" s="11"/>
     </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D36" s="4"/>
       <c r="E36" s="10"/>
     </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D37" s="4"/>
       <c r="E37" s="11"/>
     </row>
-    <row r="38" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E38" s="10"/>
     </row>
-    <row r="39" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="39" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E39" s="11"/>
     </row>
-    <row r="40" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="40" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D40" s="4"/>
       <c r="E40" s="10"/>
     </row>
-    <row r="41" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="41" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E41" s="11"/>
     </row>
-    <row r="42" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="42" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D42" s="22"/>
       <c r="E42" s="10"/>
     </row>
-    <row r="43" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="43" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E43" s="11"/>
     </row>
-    <row r="44" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="44" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E44" s="10"/>
     </row>
-    <row r="45" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="45" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E45" s="11"/>
     </row>
-    <row r="46" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="46" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E46" s="10"/>
     </row>
-    <row r="47" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="47" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E47" s="11"/>
     </row>
-    <row r="48" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="48" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E48" s="10"/>
     </row>
-    <row r="49" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="49" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E49" s="10"/>
     </row>
-    <row r="50" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="50" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E50" s="10"/>
     </row>
-    <row r="51" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="51" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E51" s="10"/>
     </row>
-    <row r="52" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="52" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D52" s="4"/>
       <c r="E52" s="10"/>
     </row>
-    <row r="53" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="53" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E53" s="10"/>
     </row>
-    <row r="54" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="54" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D54" s="4"/>
       <c r="E54" s="10"/>
     </row>
-    <row r="55" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="55" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E55" s="10"/>
     </row>
-    <row r="56" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="56" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D56" s="4"/>
       <c r="E56" s="10"/>
     </row>
-    <row r="57" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="57" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E57" s="10"/>
     </row>
-    <row r="58" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="58" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D58" s="4"/>
       <c r="E58" s="10"/>
     </row>
-    <row r="59" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="59" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D59" s="4"/>
       <c r="E59" s="10"/>
     </row>
-    <row r="60" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="60" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D60" s="4"/>
       <c r="E60" s="10"/>
     </row>
-    <row r="61" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="61" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D61" s="4"/>
       <c r="E61" s="10"/>
     </row>
-    <row r="62" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="62" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D62" s="4"/>
       <c r="E62" s="10"/>
     </row>
-    <row r="63" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="63" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D63" s="4"/>
       <c r="E63" s="10"/>
     </row>
-    <row r="64" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="64" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D64" s="4"/>
       <c r="E64" s="10"/>
     </row>
-    <row r="65" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="65" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E65" s="10"/>
     </row>
-    <row r="66" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="66" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E66" s="10"/>
     </row>
-    <row r="67" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="67" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D67" s="4"/>
       <c r="E67" s="10"/>
     </row>
-    <row r="68" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="68" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E68" s="10"/>
     </row>
   </sheetData>
@@ -7713,22 +7813,22 @@
       <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="42" customWidth="1"/>
     <col min="4" max="4" width="22.75" customWidth="1"/>
-    <col min="5" max="5" width="26.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.08203125" customWidth="1"/>
+    <col min="5" max="5" width="26.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.125" customWidth="1"/>
     <col min="7" max="7" width="37.5" customWidth="1"/>
     <col min="8" max="8" width="62" customWidth="1"/>
     <col min="9" max="9" width="9.75" customWidth="1"/>
     <col min="10" max="10" width="31" style="1" customWidth="1"/>
-    <col min="11" max="11" width="62.83203125" customWidth="1"/>
-    <col min="12" max="12" width="34.83203125" customWidth="1"/>
+    <col min="11" max="11" width="62.875" customWidth="1"/>
+    <col min="12" max="12" width="34.875" customWidth="1"/>
     <col min="13" max="13" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="3:13" x14ac:dyDescent="0.3">
       <c r="J2" s="1" t="s">
         <v>277</v>
       </c>
@@ -7736,7 +7836,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
@@ -7771,7 +7871,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>248</v>
       </c>
@@ -7779,7 +7879,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="5" spans="3:13" ht="102" x14ac:dyDescent="0.45">
+    <row r="5" spans="3:13" ht="99" x14ac:dyDescent="0.3">
       <c r="E5" s="14" t="s">
         <v>256</v>
       </c>
@@ -7806,7 +7906,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="6" spans="3:13" ht="51" x14ac:dyDescent="0.45">
+    <row r="6" spans="3:13" ht="49.5" x14ac:dyDescent="0.3">
       <c r="E6" s="14" t="s">
         <v>257</v>
       </c>
@@ -7823,7 +7923,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:13" x14ac:dyDescent="0.3">
       <c r="E7" s="1" t="s">
         <v>128</v>
       </c>
@@ -7847,7 +7947,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="3:13" x14ac:dyDescent="0.3">
       <c r="E8" s="1" t="s">
         <v>130</v>
       </c>
@@ -7871,7 +7971,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="3:13" x14ac:dyDescent="0.3">
       <c r="E9" s="1" t="s">
         <v>132</v>
       </c>
@@ -7892,7 +7992,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="10" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="3:13" x14ac:dyDescent="0.3">
       <c r="E10" s="1" t="s">
         <v>134</v>
       </c>
@@ -7913,7 +8013,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="3:13" x14ac:dyDescent="0.3">
       <c r="E11" s="1" t="s">
         <v>136</v>
       </c>
@@ -7934,7 +8034,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="3:13" x14ac:dyDescent="0.3">
       <c r="E12" s="1" t="s">
         <v>138</v>
       </c>
@@ -7955,7 +8055,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="13" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="3:13" x14ac:dyDescent="0.3">
       <c r="E13" s="1" t="s">
         <v>140</v>
       </c>
@@ -7976,7 +8076,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="14" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="3:13" x14ac:dyDescent="0.3">
       <c r="E14" s="1" t="s">
         <v>142</v>
       </c>
@@ -7997,7 +8097,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="3:13" x14ac:dyDescent="0.3">
       <c r="E15" s="1" t="s">
         <v>144</v>
       </c>
@@ -8018,7 +8118,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="16" spans="3:13" ht="34" x14ac:dyDescent="0.45">
+    <row r="16" spans="3:13" ht="33" x14ac:dyDescent="0.3">
       <c r="E16" s="1" t="s">
         <v>146</v>
       </c>
@@ -8042,7 +8142,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="17" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="17" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E17" s="1" t="s">
         <v>148</v>
       </c>
@@ -8063,7 +8163,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="18" spans="5:11" ht="34" x14ac:dyDescent="0.45">
+    <row r="18" spans="5:11" ht="33" x14ac:dyDescent="0.3">
       <c r="E18" s="1" t="s">
         <v>150</v>
       </c>
@@ -8087,7 +8187,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="19" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="19" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E19" s="1" t="s">
         <v>153</v>
       </c>
@@ -8111,7 +8211,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="20" spans="5:11" ht="34" x14ac:dyDescent="0.45">
+    <row r="20" spans="5:11" ht="33" x14ac:dyDescent="0.3">
       <c r="E20" s="1" t="s">
         <v>154</v>
       </c>
@@ -8135,7 +8235,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="21" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="21" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E21" s="1" t="s">
         <v>156</v>
       </c>
@@ -8156,7 +8256,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="22" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="22" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E22" s="1" t="s">
         <v>158</v>
       </c>
@@ -8177,7 +8277,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="23" spans="5:11" ht="51" x14ac:dyDescent="0.45">
+    <row r="23" spans="5:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="H23" t="s">
         <v>160</v>
       </c>
@@ -8191,7 +8291,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="24" spans="5:11" ht="68" x14ac:dyDescent="0.45">
+    <row r="24" spans="5:11" ht="66" x14ac:dyDescent="0.3">
       <c r="E24" s="1" t="s">
         <v>161</v>
       </c>
@@ -8215,7 +8315,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="25" spans="5:11" ht="34" x14ac:dyDescent="0.45">
+    <row r="25" spans="5:11" ht="33" x14ac:dyDescent="0.3">
       <c r="H25" t="s">
         <v>162</v>
       </c>
@@ -8229,7 +8329,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="26" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="26" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E26" s="1" t="s">
         <v>163</v>
       </c>
@@ -8250,7 +8350,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="27" spans="5:11" ht="34" x14ac:dyDescent="0.45">
+    <row r="27" spans="5:11" ht="33" x14ac:dyDescent="0.3">
       <c r="E27" s="1" t="s">
         <v>165</v>
       </c>
@@ -8274,7 +8374,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="28" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="28" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E28" s="1" t="s">
         <v>167</v>
       </c>
@@ -8295,7 +8395,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="29" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="29" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E29" s="1" t="s">
         <v>169</v>
       </c>
@@ -8319,7 +8419,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="30" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="30" spans="5:11" x14ac:dyDescent="0.3">
       <c r="H30" t="s">
         <v>171</v>
       </c>
@@ -8330,7 +8430,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="31" spans="5:11" ht="34" x14ac:dyDescent="0.45">
+    <row r="31" spans="5:11" ht="33" x14ac:dyDescent="0.3">
       <c r="E31" s="1" t="s">
         <v>245</v>
       </c>
@@ -8354,7 +8454,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="32" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="32" spans="5:11" x14ac:dyDescent="0.3">
       <c r="H32" t="s">
         <v>246</v>
       </c>
@@ -8365,7 +8465,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="33" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="33" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E33" s="1" t="s">
         <v>243</v>
       </c>
@@ -8389,7 +8489,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="34" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="34" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E34" s="1" t="s">
         <v>240</v>
       </c>
@@ -8410,7 +8510,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="35" spans="4:13" ht="51.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="4:13" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E35" s="1" t="s">
         <v>239</v>
       </c>
@@ -8434,7 +8534,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="36" spans="4:13" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="4:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D36" s="5" t="s">
         <v>249</v>
       </c>
@@ -8448,7 +8548,7 @@
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
     </row>
-    <row r="37" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="37" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E37" s="15" t="s">
         <v>250</v>
       </c>
@@ -8466,7 +8566,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="38" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="38" spans="4:13" x14ac:dyDescent="0.3">
       <c r="H38" t="s">
         <v>252</v>
       </c>
@@ -8474,7 +8574,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="39" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="39" spans="4:13" x14ac:dyDescent="0.3">
       <c r="H39" t="s">
         <v>253</v>
       </c>
@@ -8482,7 +8582,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="40" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="40" spans="4:13" x14ac:dyDescent="0.3">
       <c r="H40" t="s">
         <v>254</v>
       </c>
@@ -8490,7 +8590,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="41" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="41" spans="4:13" x14ac:dyDescent="0.3">
       <c r="H41" t="s">
         <v>289</v>
       </c>
@@ -8498,7 +8598,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="42" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="42" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E42" s="1" t="s">
         <v>291</v>
       </c>
@@ -8516,7 +8616,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="43" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="43" spans="4:13" x14ac:dyDescent="0.3">
       <c r="H43" t="s">
         <v>293</v>
       </c>
@@ -8524,7 +8624,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="44" spans="4:13" ht="34" x14ac:dyDescent="0.45">
+    <row r="44" spans="4:13" ht="33" x14ac:dyDescent="0.3">
       <c r="E44" s="14" t="s">
         <v>308</v>
       </c>
@@ -8542,7 +8642,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="45" spans="4:13" ht="34" x14ac:dyDescent="0.45">
+    <row r="45" spans="4:13" ht="33" x14ac:dyDescent="0.3">
       <c r="E45" s="14" t="s">
         <v>306</v>
       </c>
@@ -8553,7 +8653,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="46" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="46" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E46" s="1" t="s">
         <v>299</v>
       </c>
@@ -8571,7 +8671,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="47" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="47" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E47" s="1" t="s">
         <v>300</v>
       </c>
@@ -8589,7 +8689,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="48" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="48" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E48" s="1" t="s">
         <v>302</v>
       </c>
@@ -8607,7 +8707,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="49" spans="4:13" ht="34" x14ac:dyDescent="0.45">
+    <row r="49" spans="4:13" ht="33" x14ac:dyDescent="0.3">
       <c r="E49" s="14" t="s">
         <v>307</v>
       </c>
@@ -8625,7 +8725,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="50" spans="4:13" ht="34" x14ac:dyDescent="0.45">
+    <row r="50" spans="4:13" ht="33" x14ac:dyDescent="0.3">
       <c r="E50" s="14" t="s">
         <v>309</v>
       </c>
@@ -8636,7 +8736,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="51" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="51" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E51" s="1" t="s">
         <v>311</v>
       </c>
@@ -8654,7 +8754,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="52" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="52" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E52" s="1" t="s">
         <v>313</v>
       </c>
@@ -8672,7 +8772,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="53" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="53" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E53" s="1" t="s">
         <v>315</v>
       </c>
@@ -8690,7 +8790,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="54" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="54" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E54" s="1" t="s">
         <v>317</v>
       </c>
@@ -8708,7 +8808,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="55" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="55" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E55" s="1" t="s">
         <v>319</v>
       </c>
@@ -8726,7 +8826,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="56" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="56" spans="4:13" x14ac:dyDescent="0.3">
       <c r="H56" t="s">
         <v>321</v>
       </c>
@@ -8734,7 +8834,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="57" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="57" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E57" s="1" t="s">
         <v>322</v>
       </c>
@@ -8752,7 +8852,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="58" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="58" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E58" s="1" t="s">
         <v>325</v>
       </c>
@@ -8770,7 +8870,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="59" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="59" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E59" s="1" t="s">
         <v>326</v>
       </c>
@@ -8788,7 +8888,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="60" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="60" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E60" s="1" t="s">
         <v>328</v>
       </c>
@@ -8806,7 +8906,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="61" spans="4:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="61" spans="4:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E61" s="1" t="s">
         <v>330</v>
       </c>
@@ -8824,7 +8924,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="62" spans="4:13" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="4:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D62" s="5" t="s">
         <v>332</v>
       </c>
@@ -8838,7 +8938,7 @@
       <c r="L62" s="5"/>
       <c r="M62" s="5"/>
     </row>
-    <row r="63" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="63" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E63" s="1" t="s">
         <v>243</v>
       </c>
@@ -8856,7 +8956,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="64" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="64" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E64" s="1" t="s">
         <v>334</v>
       </c>
@@ -8874,7 +8974,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="65" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="65" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E65" s="1" t="s">
         <v>336</v>
       </c>
@@ -8892,7 +8992,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="66" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="66" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E66" s="1" t="s">
         <v>338</v>
       </c>
@@ -8910,7 +9010,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="67" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="67" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E67" s="1" t="s">
         <v>142</v>
       </c>
@@ -8925,7 +9025,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="68" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="68" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E68" s="1" t="s">
         <v>340</v>
       </c>
@@ -8943,7 +9043,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="69" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="69" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E69" s="1" t="s">
         <v>342</v>
       </c>
@@ -8961,7 +9061,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="70" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="70" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E70" s="1" t="s">
         <v>344</v>
       </c>
@@ -8979,7 +9079,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="71" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="71" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E71" s="1" t="s">
         <v>346</v>
       </c>
@@ -8997,7 +9097,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="72" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="72" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E72" s="1" t="s">
         <v>348</v>
       </c>
@@ -9015,7 +9115,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="73" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="73" spans="4:13" x14ac:dyDescent="0.3">
       <c r="H73" t="s">
         <v>354</v>
       </c>
@@ -9023,7 +9123,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="74" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="74" spans="4:13" x14ac:dyDescent="0.3">
       <c r="H74" t="s">
         <v>355</v>
       </c>
@@ -9031,7 +9131,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="75" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="75" spans="4:13" x14ac:dyDescent="0.3">
       <c r="H75" t="s">
         <v>356</v>
       </c>
@@ -9039,7 +9139,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="76" spans="4:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="76" spans="4:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H76" t="s">
         <v>357</v>
       </c>
@@ -9047,7 +9147,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="77" spans="4:13" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="4:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D77" s="5" t="s">
         <v>358</v>
       </c>
@@ -9061,7 +9161,7 @@
       <c r="L77" s="5"/>
       <c r="M77" s="5"/>
     </row>
-    <row r="78" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="78" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E78" s="1" t="s">
         <v>360</v>
       </c>
@@ -9079,7 +9179,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="79" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="79" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E79" s="1" t="s">
         <v>362</v>
       </c>
@@ -9097,7 +9197,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="80" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="80" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E80" s="1" t="s">
         <v>364</v>
       </c>
@@ -9115,7 +9215,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="81" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="81" spans="4:13" x14ac:dyDescent="0.3">
       <c r="G81" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9127,7 +9227,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="82" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="82" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E82" s="1" t="s">
         <v>365</v>
       </c>
@@ -9140,7 +9240,7 @@
       </c>
       <c r="J82" s="16"/>
     </row>
-    <row r="83" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="83" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E83" s="1" t="s">
         <v>368</v>
       </c>
@@ -9158,7 +9258,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="84" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="84" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E84" s="1" t="s">
         <v>370</v>
       </c>
@@ -9176,7 +9276,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="85" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="85" spans="4:13" x14ac:dyDescent="0.3">
       <c r="G85" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -9188,7 +9288,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="86" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="86" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E86" s="1" t="s">
         <v>373</v>
       </c>
@@ -9206,7 +9306,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="87" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="87" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E87" s="1" t="s">
         <v>375</v>
       </c>
@@ -9224,7 +9324,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="88" spans="4:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="88" spans="4:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E88" s="1" t="s">
         <v>377</v>
       </c>
@@ -9242,7 +9342,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="89" spans="4:13" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="4:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D89" s="5" t="s">
         <v>389</v>
       </c>
@@ -9256,7 +9356,7 @@
       <c r="L89" s="5"/>
       <c r="M89" s="5"/>
     </row>
-    <row r="90" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="90" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E90" s="1" t="s">
         <v>390</v>
       </c>
@@ -9274,7 +9374,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="91" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="91" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E91" s="1" t="s">
         <v>392</v>
       </c>
@@ -9292,7 +9392,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="92" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="92" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E92" s="1" t="s">
         <v>394</v>
       </c>
@@ -9310,7 +9410,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="93" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="93" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E93" s="1" t="s">
         <v>396</v>
       </c>
@@ -9328,7 +9428,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="94" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="94" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E94" s="1" t="s">
         <v>398</v>
       </c>
@@ -9346,7 +9446,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="95" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="95" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E95" s="1" t="s">
         <v>437</v>
       </c>
@@ -9364,7 +9464,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="96" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="96" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E96" s="1" t="s">
         <v>401</v>
       </c>
@@ -9382,7 +9482,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="97" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="97" spans="5:10" x14ac:dyDescent="0.3">
       <c r="G97" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -9394,7 +9494,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="98" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="98" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E98" s="1" t="s">
         <v>404</v>
       </c>
@@ -9412,7 +9512,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="99" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="99" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E99" s="1" t="s">
         <v>406</v>
       </c>
@@ -9430,7 +9530,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="100" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="100" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E100" s="1" t="s">
         <v>408</v>
       </c>
@@ -9448,7 +9548,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="101" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="101" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E101" s="1" t="s">
         <v>410</v>
       </c>
@@ -9469,12 +9569,12 @@
         <v>444</v>
       </c>
     </row>
-    <row r="102" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="102" spans="5:10" x14ac:dyDescent="0.3">
       <c r="J102" s="16" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="103" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="103" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E103" s="1" t="s">
         <v>412</v>
       </c>
@@ -9492,7 +9592,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="104" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="104" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E104" s="1" t="s">
         <v>414</v>
       </c>
@@ -9510,7 +9610,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="105" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="105" spans="5:10" x14ac:dyDescent="0.3">
       <c r="H105" t="s">
         <v>416</v>
       </c>
@@ -9518,7 +9618,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="106" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="106" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E106" s="1" t="s">
         <v>417</v>
       </c>
@@ -9536,7 +9636,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="107" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="107" spans="5:10" x14ac:dyDescent="0.3">
       <c r="G107" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -9548,7 +9648,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="108" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="108" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E108" s="1" t="s">
         <v>420</v>
       </c>
@@ -9566,7 +9666,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="109" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="109" spans="5:10" x14ac:dyDescent="0.3">
       <c r="H109" t="s">
         <v>422</v>
       </c>
@@ -9574,7 +9674,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="110" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="110" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E110" s="1" t="s">
         <v>423</v>
       </c>
@@ -9592,7 +9692,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="111" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="111" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E111" s="1" t="s">
         <v>425</v>
       </c>
@@ -9613,7 +9713,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="112" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="112" spans="5:10" x14ac:dyDescent="0.3">
       <c r="F112" t="s">
         <v>432</v>
       </c>
@@ -9624,12 +9724,12 @@
         <v>453</v>
       </c>
     </row>
-    <row r="113" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="113" spans="5:10" x14ac:dyDescent="0.3">
       <c r="J113" s="16" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="114" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="114" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E114" s="1" t="s">
         <v>428</v>
       </c>
@@ -9647,7 +9747,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="115" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="115" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E115" s="1" t="s">
         <v>430</v>
       </c>
@@ -9668,7 +9768,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="116" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="116" spans="5:10" x14ac:dyDescent="0.3">
       <c r="J116" s="16" t="s">
         <v>486</v>
       </c>
@@ -9691,15 +9791,15 @@
       <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32.75" customWidth="1"/>
     <col min="2" max="2" width="25.25" customWidth="1"/>
     <col min="3" max="3" width="59" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="22.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
         <v>508</v>
       </c>
@@ -9720,7 +9820,7 @@
       </c>
       <c r="G2" s="32"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>509</v>
       </c>
@@ -9731,7 +9831,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="24"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="25"/>
       <c r="B4" s="26" t="s">
         <v>524</v>
@@ -9744,7 +9844,7 @@
       <c r="F4" s="8"/>
       <c r="G4" s="24"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="25"/>
       <c r="B5" s="26" t="s">
         <v>527</v>
@@ -9757,7 +9857,7 @@
       <c r="F5" s="8"/>
       <c r="G5" s="24"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="25"/>
       <c r="B6" s="26" t="s">
         <v>532</v>
@@ -9772,7 +9872,7 @@
       <c r="F6" s="8"/>
       <c r="G6" s="24"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="25"/>
       <c r="B7" s="26" t="s">
         <v>533</v>
@@ -9787,7 +9887,7 @@
       <c r="F7" s="8"/>
       <c r="G7" s="24"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="23"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -9796,7 +9896,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="24"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
         <v>510</v>
       </c>
@@ -9807,7 +9907,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="24"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="25"/>
       <c r="B10" s="26" t="s">
         <v>534</v>
@@ -9820,7 +9920,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="24"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="25"/>
       <c r="B11" s="26" t="s">
         <v>535</v>
@@ -9833,7 +9933,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="24"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="25"/>
       <c r="B12" s="26" t="s">
         <v>536</v>
@@ -9846,7 +9946,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="24"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="25"/>
       <c r="B13" s="26" t="s">
         <v>537</v>
@@ -9859,7 +9959,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="24"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="23"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -9868,7 +9968,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="24"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="23" t="s">
         <v>511</v>
       </c>
@@ -9879,7 +9979,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="24"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="25"/>
       <c r="B16" s="26" t="s">
         <v>539</v>
@@ -9894,7 +9994,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="24"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="25"/>
       <c r="B17" s="26" t="s">
         <v>542</v>
@@ -9907,7 +10007,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="24"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="25"/>
       <c r="B18" s="26" t="s">
         <v>543</v>
@@ -9920,7 +10020,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="24"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="23"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -9929,7 +10029,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="24"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="23" t="s">
         <v>512</v>
       </c>
@@ -9940,7 +10040,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="24"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="25"/>
       <c r="B21" s="26" t="s">
         <v>544</v>
@@ -9953,7 +10053,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="24"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="25"/>
       <c r="B22" s="26" t="s">
         <v>545</v>
@@ -9966,7 +10066,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="24"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="25"/>
       <c r="B23" s="26" t="s">
         <v>546</v>
@@ -9979,7 +10079,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="24"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="23"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -9988,7 +10088,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="24"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="23"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -9997,7 +10097,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="24"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="23" t="s">
         <v>513</v>
       </c>
@@ -10008,7 +10108,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="24"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="25"/>
       <c r="B27" s="26" t="s">
         <v>547</v>
@@ -10021,7 +10121,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="24"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="25"/>
       <c r="B28" s="26" t="s">
         <v>549</v>
@@ -10034,7 +10134,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="24"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="25"/>
       <c r="B29" s="26" t="s">
         <v>550</v>
@@ -10047,7 +10147,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="24"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="23"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -10056,7 +10156,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="24"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="23" t="s">
         <v>552</v>
       </c>
@@ -10069,7 +10169,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="24"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="25"/>
       <c r="B32" s="26" t="s">
         <v>554</v>
@@ -10082,7 +10182,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="24"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="25"/>
       <c r="B33" s="26" t="s">
         <v>555</v>
@@ -10095,7 +10195,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="24"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="25"/>
       <c r="B34" s="26" t="s">
         <v>556</v>
@@ -10110,7 +10210,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="24"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="23"/>
       <c r="B35" s="26" t="s">
         <v>557</v>
@@ -10123,7 +10223,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="24"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="25"/>
       <c r="B36" s="26" t="s">
         <v>558</v>
@@ -10136,7 +10236,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="24"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="25"/>
       <c r="B37" s="26" t="s">
         <v>560</v>
@@ -10149,7 +10249,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="24"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="23" t="s">
         <v>514</v>
       </c>
@@ -10160,7 +10260,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="24"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="25"/>
       <c r="B39" s="26" t="s">
         <v>561</v>
@@ -10173,7 +10273,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="24"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="25"/>
       <c r="B40" s="26" t="s">
         <v>562</v>
@@ -10186,7 +10286,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="24"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="25"/>
       <c r="B41" s="26" t="s">
         <v>563</v>
@@ -10199,7 +10299,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="24"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="25"/>
       <c r="B42" s="26" t="s">
         <v>564</v>
@@ -10212,7 +10312,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="24"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="23"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -10221,7 +10321,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="24"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="23" t="s">
         <v>515</v>
       </c>
@@ -10232,7 +10332,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="24"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="25"/>
       <c r="B45" s="26" t="s">
         <v>565</v>
@@ -10245,7 +10345,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="24"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="25"/>
       <c r="B46" s="26" t="s">
         <v>566</v>
@@ -10258,7 +10358,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="24"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="25"/>
       <c r="B47" s="26" t="s">
         <v>567</v>
@@ -10271,7 +10371,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="24"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="25"/>
       <c r="B48" s="26" t="s">
         <v>568</v>
@@ -10284,7 +10384,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="24"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="23"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -10293,7 +10393,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="24"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="23" t="s">
         <v>516</v>
       </c>
@@ -10304,7 +10404,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="24"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="25"/>
       <c r="B51" s="26" t="s">
         <v>569</v>
@@ -10319,7 +10419,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="24"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="25"/>
       <c r="B52" s="26" t="s">
         <v>517</v>
@@ -10332,7 +10432,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="24"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="23"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -10341,7 +10441,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="24"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="23" t="s">
         <v>518</v>
       </c>
@@ -10352,7 +10452,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="24"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="25"/>
       <c r="B55" s="26" t="s">
         <v>570</v>
@@ -10365,7 +10465,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="24"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="25"/>
       <c r="B56" s="26" t="s">
         <v>519</v>
@@ -10380,7 +10480,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="24"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="27"/>
       <c r="B57" s="28" t="s">
         <v>520</v>
@@ -10391,19 +10491,19 @@
       <c r="F57" s="29"/>
       <c r="G57" s="30"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B58" s="20"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B59" s="20"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="21"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="21"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="22"/>
     </row>
   </sheetData>
@@ -10421,16 +10521,16 @@
       <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.58203125" customWidth="1"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
     <col min="2" max="2" width="9.75" customWidth="1"/>
-    <col min="3" max="3" width="60.33203125" customWidth="1"/>
+    <col min="3" max="3" width="60.375" customWidth="1"/>
     <col min="4" max="4" width="73.5" customWidth="1"/>
-    <col min="5" max="5" width="25.33203125" customWidth="1"/>
+    <col min="5" max="5" width="25.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
         <v>579</v>
       </c>
@@ -10454,7 +10554,7 @@
       </c>
       <c r="H2" s="32"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B3" s="26">
         <v>1</v>
       </c>
@@ -10471,7 +10571,7 @@
       <c r="G3" s="8"/>
       <c r="H3" s="24"/>
     </row>
-    <row r="4" spans="1:8" ht="68" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>2</v>
       </c>
@@ -10485,7 +10585,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>3</v>
       </c>
@@ -10499,7 +10599,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="51" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>1</v>
       </c>
@@ -10513,7 +10613,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>2</v>
       </c>
@@ -10524,7 +10624,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>3</v>
       </c>
@@ -10538,7 +10638,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>1</v>
       </c>
@@ -10549,7 +10649,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>2</v>
       </c>
@@ -10560,7 +10660,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>3</v>
       </c>
@@ -10574,7 +10674,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>3</v>
       </c>
@@ -10585,7 +10685,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>1</v>
       </c>
@@ -10599,7 +10699,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>1</v>
       </c>
@@ -10610,7 +10710,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="165" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" ht="165" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>2</v>
       </c>
@@ -10627,7 +10727,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="136" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" ht="132" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>2</v>
       </c>
@@ -10641,7 +10741,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>2</v>
       </c>
@@ -10655,7 +10755,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>2</v>
       </c>
@@ -10669,7 +10769,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>1</v>
       </c>
@@ -10680,7 +10780,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="51" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>3</v>
       </c>
@@ -10694,7 +10794,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>1</v>
       </c>
@@ -10705,7 +10805,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>2</v>
       </c>
@@ -10719,7 +10819,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>1</v>
       </c>
@@ -10733,7 +10833,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="119" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>670</v>
       </c>
@@ -10750,7 +10850,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>670</v>
       </c>
@@ -10767,7 +10867,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="85" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>670</v>
       </c>
@@ -10784,7 +10884,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="102" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" ht="99" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>670</v>
       </c>
@@ -10801,7 +10901,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="85" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>670</v>
       </c>
@@ -10818,7 +10918,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="68" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" ht="66" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>670</v>
       </c>
@@ -10835,7 +10935,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>1</v>
       </c>
@@ -10849,7 +10949,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>1</v>
       </c>
@@ -10863,7 +10963,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>670</v>
       </c>
@@ -10880,7 +10980,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>1</v>
       </c>
@@ -10894,7 +10994,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>670</v>
       </c>
@@ -10911,7 +11011,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>1</v>
       </c>
@@ -10925,7 +11025,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="153" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>670</v>
       </c>
@@ -10942,7 +11042,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>681</v>
       </c>
@@ -10959,7 +11059,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>2</v>
       </c>
@@ -10970,7 +11070,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>1</v>
       </c>
@@ -10981,7 +11081,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="85" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:5" ht="82.5" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>1</v>
       </c>
@@ -10995,7 +11095,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>1</v>
       </c>
@@ -11006,7 +11106,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B42">
         <v>1</v>
       </c>
@@ -11018,7 +11118,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B43">
         <v>1</v>
       </c>
@@ -11029,7 +11129,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B44">
         <v>1</v>
       </c>
@@ -11040,7 +11140,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B45">
         <v>1</v>
       </c>
@@ -11054,7 +11154,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>713</v>
       </c>
@@ -11071,7 +11171,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B47">
         <v>1</v>
       </c>
@@ -11082,7 +11182,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B48">
         <v>1</v>
       </c>
@@ -11096,7 +11196,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B49">
         <v>1</v>
       </c>
@@ -11107,7 +11207,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B50">
         <v>1</v>
       </c>
@@ -11118,7 +11218,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B51">
         <v>1</v>
       </c>
@@ -11132,7 +11232,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="85" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:5" ht="82.5" x14ac:dyDescent="0.3">
       <c r="B52">
         <v>1</v>
       </c>
@@ -11146,7 +11246,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B53">
         <v>1</v>
       </c>
@@ -11160,7 +11260,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="B54">
         <v>1</v>
       </c>
@@ -11174,7 +11274,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B55">
         <v>1</v>
       </c>
@@ -11185,7 +11285,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="B56">
         <v>1</v>
       </c>
@@ -11199,7 +11299,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B57">
         <v>1</v>
       </c>
@@ -11213,7 +11313,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="119" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:5" ht="115.5" x14ac:dyDescent="0.3">
       <c r="B58">
         <v>1</v>
       </c>
@@ -11227,7 +11327,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="B59">
         <v>1</v>
       </c>
@@ -11241,7 +11341,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="68" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:5" ht="66" x14ac:dyDescent="0.3">
       <c r="B60">
         <v>1</v>
       </c>
@@ -11255,7 +11355,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="B61">
         <v>2</v>
       </c>
@@ -11269,7 +11369,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="170" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:5" ht="165" x14ac:dyDescent="0.3">
       <c r="B62">
         <v>2</v>
       </c>
@@ -11283,7 +11383,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>670</v>
       </c>
@@ -11300,7 +11400,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="51" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>758</v>
       </c>
@@ -11317,7 +11417,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B65">
         <v>1</v>
       </c>
@@ -11328,7 +11428,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B66">
         <v>1</v>
       </c>
@@ -11339,7 +11439,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="67" spans="2:5" ht="85" x14ac:dyDescent="0.45">
+    <row r="67" spans="2:5" ht="82.5" x14ac:dyDescent="0.3">
       <c r="B67">
         <v>1</v>
       </c>
@@ -11353,7 +11453,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B68">
         <v>1</v>
       </c>
@@ -11364,7 +11464,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B69">
         <v>1</v>
       </c>
@@ -11375,7 +11475,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B70">
         <v>1</v>
       </c>
@@ -11386,7 +11486,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B71">
         <v>1</v>
       </c>
@@ -11397,7 +11497,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B72">
         <v>1</v>
       </c>
@@ -11408,7 +11508,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B73">
         <v>1</v>
       </c>
@@ -11419,7 +11519,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="74" spans="2:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:5" ht="33" x14ac:dyDescent="0.3">
       <c r="B74">
         <v>1</v>
       </c>
@@ -11433,7 +11533,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B75">
         <v>1</v>
       </c>
@@ -11447,7 +11547,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B76">
         <v>1</v>
       </c>
@@ -11458,7 +11558,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B77">
         <v>1</v>
       </c>
@@ -11469,7 +11569,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B78">
         <v>1</v>
       </c>
@@ -11483,7 +11583,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B79">
         <v>2</v>
       </c>
@@ -11494,7 +11594,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="80" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B80">
         <v>2</v>
       </c>
@@ -11515,17 +11615,17 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" customWidth="1"/>
+    <col min="1" max="1" width="13.875" customWidth="1"/>
     <col min="2" max="2" width="9.75" customWidth="1"/>
-    <col min="3" max="3" width="60.33203125" customWidth="1"/>
+    <col min="3" max="3" width="60.375" customWidth="1"/>
     <col min="4" max="4" width="70.75" customWidth="1"/>
-    <col min="5" max="5" width="25.33203125" customWidth="1"/>
-    <col min="8" max="8" width="39.33203125" customWidth="1"/>
+    <col min="5" max="5" width="25.375" customWidth="1"/>
+    <col min="8" max="8" width="39.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
         <v>579</v>
       </c>
@@ -11551,7 +11651,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>669</v>
       </c>
@@ -11569,7 +11669,7 @@
       <c r="G3" s="8"/>
       <c r="H3" s="24"/>
     </row>
-    <row r="4" spans="1:8" ht="68" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>678</v>
       </c>
@@ -11583,7 +11683,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>687</v>
       </c>
@@ -11597,7 +11697,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="136" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" ht="132" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>693</v>
       </c>
@@ -11611,117 +11711,117 @@
         <v>696</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D7" s="4"/>
       <c r="E7" s="10"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E8" s="10"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E9" s="10"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E10" s="10"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E11" s="10"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E12" s="10"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E13" s="10"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E14" s="10"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E15" s="10"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D16" s="34"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D17" s="4"/>
       <c r="E17" s="10"/>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D18" s="4"/>
       <c r="E18" s="10"/>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E19" s="10"/>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E20" s="10"/>
     </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D21" s="4"/>
       <c r="E21" s="10"/>
     </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E22" s="10"/>
     </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D23" s="4"/>
       <c r="E23" s="10"/>
     </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D24" s="4"/>
       <c r="E24" s="10"/>
     </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D25" s="4"/>
       <c r="E25" s="11"/>
     </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D26" s="4"/>
       <c r="E26" s="10"/>
     </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D27" s="4"/>
       <c r="E27" s="10"/>
     </row>
-    <row r="28" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D28" s="4"/>
       <c r="E28" s="11"/>
     </row>
-    <row r="29" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D29" s="4"/>
       <c r="E29" s="10"/>
     </row>
-    <row r="30" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D30" s="4"/>
       <c r="E30" s="11"/>
     </row>
-    <row r="31" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D31" s="4"/>
       <c r="E31" s="10"/>
     </row>
-    <row r="32" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D32" s="4"/>
       <c r="E32" s="11"/>
     </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D33" s="4"/>
       <c r="E33" s="10"/>
     </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D34" s="4"/>
       <c r="E34" s="11"/>
     </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D35" s="4"/>
       <c r="E35" s="10"/>
     </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D36" s="4"/>
       <c r="E36" s="11"/>
     </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D37" s="4"/>
       <c r="E37" s="10"/>
     </row>
@@ -11743,16 +11843,16 @@
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.58203125" customWidth="1"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
     <col min="2" max="2" width="9.75" customWidth="1"/>
-    <col min="3" max="3" width="60.33203125" customWidth="1"/>
+    <col min="3" max="3" width="60.375" customWidth="1"/>
     <col min="4" max="4" width="73.5" customWidth="1"/>
-    <col min="5" max="5" width="25.33203125" customWidth="1"/>
+    <col min="5" max="5" width="25.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
         <v>781</v>
       </c>
@@ -11776,7 +11876,7 @@
       </c>
       <c r="H2" s="32"/>
     </row>
-    <row r="3" spans="1:8" ht="34" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="B3" s="26" t="s">
         <v>774</v>
       </c>
@@ -11793,7 +11893,7 @@
       <c r="G3" s="8"/>
       <c r="H3" s="24"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>801</v>
       </c>
@@ -11805,7 +11905,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="136" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" ht="148.5" x14ac:dyDescent="0.3">
       <c r="B5" s="26" t="s">
         <v>774</v>
       </c>
@@ -11819,7 +11919,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" s="26" t="s">
         <v>774</v>
       </c>
@@ -11833,7 +11933,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" s="26" t="s">
         <v>774</v>
       </c>
@@ -11847,221 +11947,221 @@
         <v>844</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E8" s="10"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E9" s="10"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E10" s="10"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E11" s="10"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E12" s="10"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E13" s="10"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E14" s="10"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D15" s="34"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D16" s="4"/>
       <c r="E16" s="10"/>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D17" s="4"/>
       <c r="E17" s="10"/>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E18" s="10"/>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E19" s="10"/>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D20" s="4"/>
       <c r="E20" s="10"/>
     </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E21" s="10"/>
     </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D22" s="4"/>
       <c r="E22" s="10"/>
     </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D23" s="4"/>
       <c r="E23" s="10"/>
     </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D24" s="4"/>
       <c r="E24" s="11"/>
     </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D25" s="4"/>
       <c r="E25" s="10"/>
     </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D26" s="4"/>
       <c r="E26" s="10"/>
     </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D27" s="4"/>
       <c r="E27" s="11"/>
     </row>
-    <row r="28" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D28" s="4"/>
       <c r="E28" s="10"/>
     </row>
-    <row r="29" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D29" s="4"/>
       <c r="E29" s="11"/>
     </row>
-    <row r="30" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D30" s="4"/>
       <c r="E30" s="10"/>
     </row>
-    <row r="31" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D31" s="4"/>
       <c r="E31" s="11"/>
     </row>
-    <row r="32" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D32" s="4"/>
       <c r="E32" s="10"/>
     </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D33" s="4"/>
       <c r="E33" s="11"/>
     </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D34" s="4"/>
       <c r="E34" s="10"/>
     </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D35" s="4"/>
       <c r="E35" s="11"/>
     </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D36" s="4"/>
       <c r="E36" s="10"/>
     </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D37" s="4"/>
       <c r="E37" s="11"/>
     </row>
-    <row r="38" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E38" s="10"/>
     </row>
-    <row r="39" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="39" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E39" s="11"/>
     </row>
-    <row r="40" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="40" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D40" s="4"/>
       <c r="E40" s="10"/>
     </row>
-    <row r="41" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="41" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E41" s="11"/>
     </row>
-    <row r="42" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="42" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D42" s="22"/>
       <c r="E42" s="10"/>
     </row>
-    <row r="43" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="43" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E43" s="11"/>
     </row>
-    <row r="44" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="44" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E44" s="10"/>
     </row>
-    <row r="45" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="45" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E45" s="11"/>
     </row>
-    <row r="46" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="46" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E46" s="10"/>
     </row>
-    <row r="47" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="47" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E47" s="11"/>
     </row>
-    <row r="48" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="48" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E48" s="10"/>
     </row>
-    <row r="49" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="49" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E49" s="10"/>
     </row>
-    <row r="50" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="50" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E50" s="10"/>
     </row>
-    <row r="51" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="51" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E51" s="10"/>
     </row>
-    <row r="52" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="52" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D52" s="4"/>
       <c r="E52" s="10"/>
     </row>
-    <row r="53" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="53" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E53" s="10"/>
     </row>
-    <row r="54" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="54" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D54" s="4"/>
       <c r="E54" s="10"/>
     </row>
-    <row r="55" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="55" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E55" s="10"/>
     </row>
-    <row r="56" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="56" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D56" s="4"/>
       <c r="E56" s="10"/>
     </row>
-    <row r="57" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="57" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E57" s="10"/>
     </row>
-    <row r="58" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="58" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D58" s="4"/>
       <c r="E58" s="10"/>
     </row>
-    <row r="59" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="59" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D59" s="4"/>
       <c r="E59" s="10"/>
     </row>
-    <row r="60" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="60" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D60" s="4"/>
       <c r="E60" s="10"/>
     </row>
-    <row r="61" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="61" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D61" s="4"/>
       <c r="E61" s="10"/>
     </row>
-    <row r="62" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="62" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D62" s="4"/>
       <c r="E62" s="10"/>
     </row>
-    <row r="63" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="63" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D63" s="4"/>
       <c r="E63" s="10"/>
     </row>
-    <row r="64" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="64" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D64" s="4"/>
       <c r="E64" s="10"/>
     </row>
-    <row r="65" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="65" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E65" s="10"/>
     </row>
-    <row r="66" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="66" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E66" s="10"/>
     </row>
-    <row r="67" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="67" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D67" s="4"/>
       <c r="E67" s="10"/>
     </row>
-    <row r="68" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="68" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E68" s="10"/>
     </row>
   </sheetData>
@@ -12085,16 +12185,16 @@
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.75" customWidth="1"/>
-    <col min="3" max="3" width="75.58203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="75.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="73.5" customWidth="1"/>
-    <col min="5" max="5" width="25.33203125" customWidth="1"/>
+    <col min="5" max="5" width="25.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
         <v>873</v>
       </c>
@@ -12118,7 +12218,7 @@
       </c>
       <c r="H2" s="32"/>
     </row>
-    <row r="3" spans="1:8" ht="34" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="B3" s="26" t="s">
         <v>774</v>
       </c>
@@ -12135,7 +12235,7 @@
       <c r="G3" s="8"/>
       <c r="H3" s="24"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4" s="26" t="s">
         <v>798</v>
       </c>
@@ -12149,7 +12249,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" s="26" t="s">
         <v>774</v>
       </c>
@@ -12163,7 +12263,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" s="26" t="s">
         <v>774</v>
       </c>
@@ -12177,7 +12277,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" s="26" t="s">
         <v>774</v>
       </c>
@@ -12191,7 +12291,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="B8" s="26" t="s">
         <v>774</v>
       </c>
@@ -12205,7 +12305,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="34" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="B9" s="26" t="s">
         <v>774</v>
       </c>
@@ -12219,7 +12319,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="68" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>879</v>
       </c>
@@ -12236,7 +12336,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="34" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A11" s="37" t="s">
         <v>878</v>
       </c>
@@ -12254,7 +12354,7 @@
       </c>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="1:8" ht="34" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>877</v>
       </c>
@@ -12271,7 +12371,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="37" t="s">
         <v>876</v>
       </c>
@@ -12288,7 +12388,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>875</v>
       </c>
@@ -12302,7 +12402,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="85" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>883</v>
       </c>
@@ -12319,14 +12419,14 @@
         <v>854</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B16" s="26"/>
       <c r="C16" s="22"/>
       <c r="D16" s="34"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>874</v>
       </c>
@@ -12341,7 +12441,7 @@
       </c>
       <c r="E18" s="10"/>
     </row>
-    <row r="19" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>880</v>
       </c>
@@ -12358,7 +12458,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="85" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>885</v>
       </c>
@@ -12373,7 +12473,7 @@
       </c>
       <c r="E20" s="10"/>
     </row>
-    <row r="21" spans="1:5" ht="85" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>890</v>
       </c>
@@ -12388,7 +12488,7 @@
       </c>
       <c r="E21" s="10"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>892</v>
       </c>
@@ -12403,7 +12503,7 @@
       </c>
       <c r="E22" s="10"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>897</v>
       </c>
@@ -12418,7 +12518,7 @@
       </c>
       <c r="E23" s="10"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B24" s="26" t="s">
         <v>774</v>
       </c>
@@ -12428,7 +12528,7 @@
       <c r="D24" s="4"/>
       <c r="E24" s="10"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B25" s="36" t="s">
         <v>852</v>
       </c>
@@ -12438,15 +12538,15 @@
       <c r="D25" s="4"/>
       <c r="E25" s="11"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D26" s="4"/>
       <c r="E26" s="10"/>
     </row>
-    <row r="27" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D27" s="43"/>
       <c r="E27" s="44"/>
     </row>
-    <row r="28" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>898</v>
       </c>
@@ -12461,7 +12561,7 @@
       </c>
       <c r="E28" s="11"/>
     </row>
-    <row r="29" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>902</v>
       </c>
@@ -12478,7 +12578,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B30" s="26" t="s">
         <v>774</v>
       </c>
@@ -12488,142 +12588,142 @@
       <c r="D30" s="4"/>
       <c r="E30" s="11"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D31" s="4"/>
       <c r="E31" s="10"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D32" s="4"/>
       <c r="E32" s="11"/>
     </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D33" s="4"/>
       <c r="E33" s="10"/>
     </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D34" s="4"/>
       <c r="E34" s="11"/>
     </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D35" s="4"/>
       <c r="E35" s="10"/>
     </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D36" s="4"/>
       <c r="E36" s="11"/>
     </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D37" s="4"/>
       <c r="E37" s="10"/>
     </row>
-    <row r="38" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D38" s="4"/>
       <c r="E38" s="11"/>
     </row>
-    <row r="39" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="39" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E39" s="10"/>
     </row>
-    <row r="40" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="40" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E40" s="11"/>
     </row>
-    <row r="41" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="41" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D41" s="4"/>
       <c r="E41" s="10"/>
     </row>
-    <row r="42" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="42" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E42" s="11"/>
     </row>
-    <row r="43" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="43" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D43" s="22"/>
       <c r="E43" s="10"/>
     </row>
-    <row r="44" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="44" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E44" s="11"/>
     </row>
-    <row r="45" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="45" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E45" s="10"/>
     </row>
-    <row r="46" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="46" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E46" s="11"/>
     </row>
-    <row r="47" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="47" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E47" s="10"/>
     </row>
-    <row r="48" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="48" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E48" s="11"/>
     </row>
-    <row r="49" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="49" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E49" s="10"/>
     </row>
-    <row r="50" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="50" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E50" s="10"/>
     </row>
-    <row r="51" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="51" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E51" s="10"/>
     </row>
-    <row r="52" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="52" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E52" s="10"/>
     </row>
-    <row r="53" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="53" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D53" s="4"/>
       <c r="E53" s="10"/>
     </row>
-    <row r="54" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="54" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E54" s="10"/>
     </row>
-    <row r="55" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="55" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D55" s="4"/>
       <c r="E55" s="10"/>
     </row>
-    <row r="56" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="56" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E56" s="10"/>
     </row>
-    <row r="57" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="57" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D57" s="4"/>
       <c r="E57" s="10"/>
     </row>
-    <row r="58" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="58" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E58" s="10"/>
     </row>
-    <row r="59" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="59" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D59" s="4"/>
       <c r="E59" s="10"/>
     </row>
-    <row r="60" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="60" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D60" s="4"/>
       <c r="E60" s="10"/>
     </row>
-    <row r="61" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="61" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D61" s="4"/>
       <c r="E61" s="10"/>
     </row>
-    <row r="62" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="62" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D62" s="4"/>
       <c r="E62" s="10"/>
     </row>
-    <row r="63" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="63" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D63" s="4"/>
       <c r="E63" s="10"/>
     </row>
-    <row r="64" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="64" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D64" s="4"/>
       <c r="E64" s="10"/>
     </row>
-    <row r="65" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="65" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D65" s="4"/>
       <c r="E65" s="10"/>
     </row>
-    <row r="66" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="66" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E66" s="10"/>
     </row>
-    <row r="67" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="67" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E67" s="10"/>
     </row>
-    <row r="68" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="68" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D68" s="4"/>
       <c r="E68" s="10"/>
     </row>
-    <row r="69" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="69" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E69" s="10"/>
     </row>
   </sheetData>
@@ -12657,20 +12757,20 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:C30"/>
+  <dimension ref="A3:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.58203125" customWidth="1"/>
+    <col min="1" max="1" width="51.625" customWidth="1"/>
     <col min="2" max="2" width="59.25" customWidth="1"/>
     <col min="3" max="3" width="43.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" ht="170" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" ht="165" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>907</v>
       </c>
@@ -12681,13 +12781,13 @@
         <v>908</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="45" t="s">
         <v>911</v>
       </c>
       <c r="B6" s="46"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>909</v>
       </c>
@@ -12695,7 +12795,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>912</v>
       </c>
@@ -12703,13 +12803,13 @@
         <v>913</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="42" t="s">
         <v>920</v>
       </c>
       <c r="B9" s="42"/>
     </row>
-    <row r="10" spans="1:3" ht="68" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" ht="66" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>917</v>
       </c>
@@ -12717,7 +12817,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="51" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>914</v>
       </c>
@@ -12725,7 +12825,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>915</v>
       </c>
@@ -12733,7 +12833,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>918</v>
       </c>
@@ -12741,7 +12841,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="68" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" ht="66" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>922</v>
       </c>
@@ -12749,7 +12849,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="34" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>924</v>
       </c>
@@ -12757,7 +12857,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>927</v>
       </c>
@@ -12765,7 +12865,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="136" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" ht="132" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>928</v>
       </c>
@@ -12773,13 +12873,13 @@
         <v>930</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="45" t="s">
         <v>911</v>
       </c>
       <c r="B21" s="46"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="47" t="s">
         <v>933</v>
       </c>
@@ -12787,22 +12887,22 @@
         <v>934</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="47"/>
       <c r="B23" t="s">
         <v>936</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="47"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="42" t="s">
         <v>935</v>
       </c>
       <c r="B25" s="42"/>
     </row>
-    <row r="26" spans="1:3" ht="204" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" ht="198" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>931</v>
       </c>
@@ -12813,7 +12913,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="85" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" ht="99" x14ac:dyDescent="0.3">
       <c r="A28" s="48" t="s">
         <v>940</v>
       </c>
@@ -12824,12 +12924,43 @@
         <v>938</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="85" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A30" s="13" t="s">
         <v>942</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>941</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="13"/>
+      <c r="B31" s="4"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="42" t="s">
+        <v>935</v>
+      </c>
+      <c r="B32" s="42"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="132" x14ac:dyDescent="0.3">
+      <c r="A34" s="49" t="s">
+        <v>943</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="264" x14ac:dyDescent="0.3">
+      <c r="A36" s="49" t="s">
+        <v>944</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>947</v>
       </c>
     </row>
   </sheetData>
@@ -12847,16 +12978,16 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.58203125" customWidth="1"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
     <col min="2" max="2" width="9.75" customWidth="1"/>
-    <col min="3" max="3" width="60.33203125" customWidth="1"/>
-    <col min="4" max="4" width="91.33203125" customWidth="1"/>
-    <col min="5" max="5" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" width="60.375" customWidth="1"/>
+    <col min="4" max="4" width="91.375" customWidth="1"/>
+    <col min="5" max="5" width="25.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="33" t="s">
         <v>579</v>
       </c>
@@ -12880,7 +13011,7 @@
       </c>
       <c r="H1" s="32"/>
     </row>
-    <row r="2" spans="1:8" ht="119" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>831</v>
       </c>
@@ -12896,7 +13027,7 @@
       <c r="G2" s="8"/>
       <c r="H2" s="24"/>
     </row>
-    <row r="3" spans="1:8" ht="187" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" ht="181.5" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>2</v>
       </c>
@@ -12908,7 +13039,7 @@
       </c>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="187" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" ht="181.5" x14ac:dyDescent="0.3">
       <c r="B4" s="26">
         <v>2</v>
       </c>
@@ -12920,7 +13051,7 @@
       </c>
       <c r="E4" s="10"/>
     </row>
-    <row r="5" spans="1:8" ht="323" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" ht="313.5" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>2</v>
       </c>
@@ -12932,19 +13063,19 @@
       </c>
       <c r="E5" s="10"/>
     </row>
-    <row r="6" spans="1:8" ht="136" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" ht="132" x14ac:dyDescent="0.3">
       <c r="C6" s="8"/>
       <c r="D6" s="4" t="s">
         <v>836</v>
       </c>
       <c r="E6" s="10"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C7" s="10"/>
       <c r="D7" s="4"/>
       <c r="E7" s="10"/>
     </row>
-    <row r="8" spans="1:8" ht="323" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" ht="313.5" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>833</v>
       </c>
@@ -12959,219 +13090,219 @@
       </c>
       <c r="E8" s="10"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C9" s="22"/>
       <c r="E9" s="10"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E10" s="10"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E11" s="10"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E12" s="10"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E13" s="10"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E14" s="10"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D15" s="34"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D16" s="4"/>
       <c r="E16" s="10"/>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D17" s="4"/>
       <c r="E17" s="10"/>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E18" s="10"/>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E19" s="10"/>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D20" s="4"/>
       <c r="E20" s="10"/>
     </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E21" s="10"/>
     </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D22" s="4"/>
       <c r="E22" s="10"/>
     </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D23" s="4"/>
       <c r="E23" s="10"/>
     </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D24" s="4"/>
       <c r="E24" s="11"/>
     </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D25" s="4"/>
       <c r="E25" s="10"/>
     </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D26" s="4"/>
       <c r="E26" s="10"/>
     </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D27" s="4"/>
       <c r="E27" s="11"/>
     </row>
-    <row r="28" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D28" s="4"/>
       <c r="E28" s="10"/>
     </row>
-    <row r="29" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D29" s="4"/>
       <c r="E29" s="11"/>
     </row>
-    <row r="30" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D30" s="4"/>
       <c r="E30" s="10"/>
     </row>
-    <row r="31" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D31" s="4"/>
       <c r="E31" s="11"/>
     </row>
-    <row r="32" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D32" s="4"/>
       <c r="E32" s="10"/>
     </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D33" s="4"/>
       <c r="E33" s="11"/>
     </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D34" s="4"/>
       <c r="E34" s="10"/>
     </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D35" s="4"/>
       <c r="E35" s="11"/>
     </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D36" s="4"/>
       <c r="E36" s="10"/>
     </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D37" s="4"/>
       <c r="E37" s="11"/>
     </row>
-    <row r="38" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E38" s="10"/>
     </row>
-    <row r="39" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="39" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E39" s="11"/>
     </row>
-    <row r="40" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="40" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D40" s="4"/>
       <c r="E40" s="10"/>
     </row>
-    <row r="41" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="41" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E41" s="11"/>
     </row>
-    <row r="42" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="42" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D42" s="22"/>
       <c r="E42" s="10"/>
     </row>
-    <row r="43" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="43" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E43" s="11"/>
     </row>
-    <row r="44" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="44" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E44" s="10"/>
     </row>
-    <row r="45" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="45" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E45" s="11"/>
     </row>
-    <row r="46" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="46" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E46" s="10"/>
     </row>
-    <row r="47" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="47" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E47" s="11"/>
     </row>
-    <row r="48" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="48" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E48" s="10"/>
     </row>
-    <row r="49" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="49" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E49" s="10"/>
     </row>
-    <row r="50" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="50" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E50" s="10"/>
     </row>
-    <row r="51" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="51" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E51" s="10"/>
     </row>
-    <row r="52" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="52" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D52" s="4"/>
       <c r="E52" s="10"/>
     </row>
-    <row r="53" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="53" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E53" s="10"/>
     </row>
-    <row r="54" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="54" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D54" s="4"/>
       <c r="E54" s="10"/>
     </row>
-    <row r="55" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="55" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E55" s="10"/>
     </row>
-    <row r="56" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="56" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D56" s="4"/>
       <c r="E56" s="10"/>
     </row>
-    <row r="57" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="57" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E57" s="10"/>
     </row>
-    <row r="58" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="58" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D58" s="4"/>
       <c r="E58" s="10"/>
     </row>
-    <row r="59" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="59" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D59" s="4"/>
       <c r="E59" s="10"/>
     </row>
-    <row r="60" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="60" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D60" s="4"/>
       <c r="E60" s="10"/>
     </row>
-    <row r="61" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="61" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D61" s="4"/>
       <c r="E61" s="10"/>
     </row>
-    <row r="62" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="62" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D62" s="4"/>
       <c r="E62" s="10"/>
     </row>
-    <row r="63" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="63" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D63" s="4"/>
       <c r="E63" s="10"/>
     </row>
-    <row r="64" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="64" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D64" s="4"/>
       <c r="E64" s="10"/>
     </row>
-    <row r="65" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="65" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E65" s="10"/>
     </row>
-    <row r="66" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="66" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E66" s="10"/>
     </row>
-    <row r="67" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="67" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D67" s="4"/>
       <c r="E67" s="10"/>
     </row>
-    <row r="68" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="68" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E68" s="10"/>
     </row>
   </sheetData>

--- a/src/main/resources/알고리즘 문제 목록.xlsx
+++ b/src/main/resources/알고리즘 문제 목록.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="9975" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="9975" firstSheet="7" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="BASIC" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="948">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="954">
   <si>
     <t>수학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5143,6 +5143,30 @@
   }
 }</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hash 팁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아나그램시 hashMap.equal()함수로 쉽게 비교 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stack, Queue 팁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stack, queue가 변경되므로 for에 i&lt;q.size()를 넣으면 안된다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일단 if에 &amp; 조건해서 처리하는 것 보다 push하고 pop하는게 로직이 더 깔끔하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>treeset은 정렬이 되어있지만, 정렬을 해야하기 때문에 인덱스처럼 변경은 느리다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -12757,10 +12781,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:C36"/>
+  <dimension ref="A3:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12961,6 +12985,38 @@
       </c>
       <c r="B36" s="4" t="s">
         <v>947</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="42" t="s">
+        <v>948</v>
+      </c>
+      <c r="B38" s="42"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="42" t="s">
+        <v>950</v>
+      </c>
+      <c r="B42" s="42"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="49" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>952</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/알고리즘 문제 목록.xlsx
+++ b/src/main/resources/알고리즘 문제 목록.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="954">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="964">
   <si>
     <t>수학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5167,6 +5167,293 @@
   </si>
   <si>
     <t>treeset은 정렬이 되어있지만, 정렬을 해야하기 때문에 인덱스처럼 변경은 느리다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제 유형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연속되는 숫자들의 배열들 사이에서 숫자들을 묶는 최소값을 결정하는 방법
+연속되는 숫자들의 배열 사이에서 선택된 정점간의 최대 거리를 찾는 방법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>equal 비교조건의 결과로 lt를 대입한다!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+while (lt &lt;= rt) {
+  int mid = (lt + rt) / 2;
+  if(c&lt;=count(x, mid)){
+    ans = mid;
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lt = mid + 1;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+   } else {
+     rt = mid - 1;
+   }
+ }</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>최소값</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>을 찾아야하는 경우</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>최대거리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>를 찾아야하는경우</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>결정 알고리즘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(binary search 응용) 팁</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>equal 비교조건의 결과로 rt를 대입한다!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+while (lt &lt;= rt) {
+  int mid = (lt+rt)/2;
+  if(count(a, mid)&lt;=m){
+    ans=mid;
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rt=mid-1;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  } else lt=mid+1;
+}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>binary search 팁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드 유형을 그냥 웬만하면 이대로 처리하자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">while </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(lt &lt;= rt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) {
+  int mid = (lt+rt)/2;
+  if(m&gt;a[mid]) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rt = mid-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">;
+  } else if(m&lt;a[mid]) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lt=mid+1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;
+  else ans=mid
+}</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5408,7 +5695,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5557,6 +5844,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -12781,10 +13071,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:C44"/>
+  <dimension ref="A3:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13017,6 +13307,50 @@
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>952</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="42" t="s">
+        <v>961</v>
+      </c>
+      <c r="B46" s="42"/>
+    </row>
+    <row r="47" spans="1:2" ht="99" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>962</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="50" t="s">
+        <v>959</v>
+      </c>
+      <c r="B49" s="42"/>
+    </row>
+    <row r="50" spans="1:2" ht="66" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>954</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="132" x14ac:dyDescent="0.3">
+      <c r="A52" s="47" t="s">
+        <v>957</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="165" x14ac:dyDescent="0.3">
+      <c r="A53" s="47" t="s">
+        <v>958</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>956</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/알고리즘 문제 목록.xlsx
+++ b/src/main/resources/알고리즘 문제 목록.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SeongJin\git\Leetcode\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\Leetcode\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="964">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="967">
   <si>
     <t>수학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5453,6 +5453,35 @@
       <t>;
   else ans=mid
 }</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string 팁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열 조작할때 유용한 함수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Character.isLowerCase©
+Character.toUpperCase©
+split("\\s+")
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sc.next()는 공백이 있을때 끊긴다!!</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -13071,10 +13100,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:C53"/>
+  <dimension ref="A3:C56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13351,6 +13380,20 @@
       </c>
       <c r="B53" s="13" t="s">
         <v>956</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="42" t="s">
+        <v>964</v>
+      </c>
+      <c r="B55" s="42"/>
+    </row>
+    <row r="56" spans="1:2" ht="66" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>965</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>966</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/알고리즘 문제 목록.xlsx
+++ b/src/main/resources/알고리즘 문제 목록.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="967">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="969">
   <si>
     <t>수학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5483,6 +5483,24 @@
       </rPr>
       <t>sc.next()는 공백이 있을때 끊긴다!!</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>while문을 통한 스트링 반전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>for (String s : sarr) {
+  char[] carr = s.toCharArray();
+  int lt=0, rt=s.length()-1;
+  while (lt &lt; rt) {
+    char tmp = carr[lt];
+    carr[lt] = carr[rt];
+    carr[rt] = tmp;
+    lt++;
+    rt--;
+  }
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -13100,10 +13118,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:C56"/>
+  <dimension ref="A3:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13394,6 +13412,14 @@
       </c>
       <c r="B56" s="4" t="s">
         <v>966</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="181.5" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>967</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>968</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/알고리즘 문제 목록.xlsx
+++ b/src/main/resources/알고리즘 문제 목록.xlsx
@@ -5490,7 +5490,29 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>for (String s : sarr) {
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>문자 뒤집을 때도 two pointer algorithm을 사용할 수 있다!!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+for (String s : sarr) {
   char[] carr = s.toCharArray();
   int lt=0, rt=s.length()-1;
   while (lt &lt; rt) {
@@ -5501,6 +5523,7 @@
     rt--;
   }
 }</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -13414,11 +13437,11 @@
         <v>966</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="181.5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" ht="198" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>967</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="13" t="s">
         <v>968</v>
       </c>
     </row>

--- a/src/main/resources/알고리즘 문제 목록.xlsx
+++ b/src/main/resources/알고리즘 문제 목록.xlsx
@@ -5465,27 +5465,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Character.isLowerCase©
-Character.toUpperCase©
-split("\\s+")
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>sc.next()는 공백이 있을때 끊긴다!!</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>while문을 통한 스트링 반전</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5523,6 +5502,51 @@
     rt--;
   }
 }</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Character.isLowerCase(c)
+Character.toUpperCase(c)
+Character.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>isAlphabetic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(c)
+split("\\s+")
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sc.next()는 공백이 있을때 끊긴다!!</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -13144,7 +13168,7 @@
   <dimension ref="A3:C57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13429,20 +13453,20 @@
       </c>
       <c r="B55" s="42"/>
     </row>
-    <row r="56" spans="1:2" ht="66" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>965</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="198" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
+        <v>966</v>
+      </c>
+      <c r="B57" s="13" t="s">
         <v>967</v>
-      </c>
-      <c r="B57" s="13" t="s">
-        <v>968</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/알고리즘 문제 목록.xlsx
+++ b/src/main/resources/알고리즘 문제 목록.xlsx
@@ -5546,7 +5546,8 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>sc.next()는 공백이 있을때 끊긴다!!</t>
+      <t>sc.next()는 공백이 있을때 끊긴다!!
+s.equalsIgnoreCase()라는 편리한 함수가 있다</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -13168,7 +13169,7 @@
   <dimension ref="A3:C57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13453,7 +13454,7 @@
       </c>
       <c r="B55" s="42"/>
     </row>
-    <row r="56" spans="1:2" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" ht="99" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>965</v>
       </c>

--- a/src/main/resources/알고리즘 문제 목록.xlsx
+++ b/src/main/resources/알고리즘 문제 목록.xlsx
@@ -5534,6 +5534,54 @@
       </rPr>
       <t xml:space="preserve">(c)
 split("\\s+")
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s.replaceAll("[^a-z]", "")</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : 부정
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Integer.parseInt(str, 2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : 스트링 2진수를 10진수로 변환해준다!
 </t>
     </r>
     <r>
@@ -13454,7 +13502,7 @@
       </c>
       <c r="B55" s="42"/>
     </row>
-    <row r="56" spans="1:2" ht="99" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" ht="132" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>965</v>
       </c>
